--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/56_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/56_11R22.xlsx
@@ -683,16 +683,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04474526330661761</v>
+        <v>0.04506554898033514</v>
       </c>
       <c r="E2">
-        <v>0.04679875640740945</v>
+        <v>0.04699387797498067</v>
       </c>
       <c r="F2">
-        <v>0.1858191962305922</v>
+        <v>0.1775407713909099</v>
       </c>
       <c r="G2">
-        <v>0.1125177710422336</v>
+        <v>0.1087072002018723</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -701,22 +701,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.009307046095662573</v>
+        <v>0.01178735498977335</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.02302389220976572</v>
+        <v>0.02466813460705891</v>
       </c>
       <c r="M2">
-        <v>0.04649264580020804</v>
+        <v>0.0467064253610871</v>
       </c>
       <c r="N2">
-        <v>0.02159071061666533</v>
+        <v>0.02332230801552953</v>
       </c>
       <c r="O2">
-        <v>0.2041287989386799</v>
+        <v>0.1947343708088146</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -725,22 +725,22 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0.03619464797014928</v>
+        <v>0.03703610906207358</v>
       </c>
       <c r="S2">
-        <v>0.04597225083647536</v>
+        <v>0.04621774940846457</v>
       </c>
       <c r="T2">
-        <v>0.09749425458540892</v>
+        <v>0.09459939415467487</v>
       </c>
       <c r="U2">
-        <v>0.01819897956677105</v>
+        <v>0.02013730908710427</v>
       </c>
       <c r="V2">
-        <v>0.004388487241468876</v>
+        <v>0.007168591164000124</v>
       </c>
       <c r="W2">
-        <v>0.002808437144182921</v>
+        <v>0.005684847968362348</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0.005604237759174301</v>
+        <v>0.008310239496123903</v>
       </c>
       <c r="AB2">
         <v>0</v>
@@ -761,19 +761,19 @@
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.03452656172554074</v>
+        <v>0.03546969568098763</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>0.0507951089146542</v>
+        <v>0.05074664559303249</v>
       </c>
       <c r="AG2">
-        <v>0.009540963454129889</v>
+        <v>0.01200701466357964</v>
       </c>
       <c r="AH2">
-        <v>5.199015421018281E-05</v>
+        <v>0.003096411391235199</v>
       </c>
       <c r="AI2">
         <v>0</v>
@@ -790,16 +790,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08884610831446711</v>
+        <v>0.1025561676325245</v>
       </c>
       <c r="E3">
-        <v>0.02538123859597912</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.1627697398449063</v>
+        <v>0.2286383889517278</v>
       </c>
       <c r="G3">
-        <v>0.09274924673759515</v>
+        <v>0.1092132589078858</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -808,22 +808,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03028478303538525</v>
+        <v>0.002675495894383851</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.02871610530597796</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.04310191185983549</v>
+        <v>0.02453605712040613</v>
       </c>
       <c r="N3">
-        <v>0.01437565964664485</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.2539131776173248</v>
+        <v>0.3840902634755502</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>0.02269224746840743</v>
+        <v>0</v>
       </c>
       <c r="S3">
-        <v>0.0397225361630474</v>
+        <v>0.01877228191480454</v>
       </c>
       <c r="T3">
-        <v>0.09647575750643887</v>
+        <v>0.1155690986546423</v>
       </c>
       <c r="U3">
         <v>0</v>
       </c>
       <c r="V3">
-        <v>0.001313778459563746</v>
+        <v>0</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <v>0.02702538586481252</v>
+        <v>0</v>
       </c>
       <c r="AB3">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.007021641827594435</v>
+        <v>0</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.0339781168321098</v>
+        <v>0.008974749861264187</v>
       </c>
       <c r="AG3">
-        <v>0.03163256491990968</v>
+        <v>0.00497423758681073</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -897,22 +897,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2616502453699902</v>
+        <v>0.276757297364939</v>
       </c>
       <c r="E4">
-        <v>0.006604330012431536</v>
+        <v>0.002358943811803895</v>
       </c>
       <c r="F4">
-        <v>0.2874220780238156</v>
+        <v>0.3044846516271803</v>
       </c>
       <c r="G4">
-        <v>0.01308147622289825</v>
+        <v>0.009327564553615442</v>
       </c>
       <c r="H4">
-        <v>0.00441175496244287</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.006930072086128379</v>
+        <v>0.002709402624602713</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -921,34 +921,34 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.05149651867366712</v>
+        <v>0.05065747326980447</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.1279079413931333</v>
+        <v>0.132866861165625</v>
       </c>
       <c r="O4">
-        <v>0.008263821974867849</v>
+        <v>0.004144355123287933</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0.02229611864536993</v>
+        <v>0.01924139793441013</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.1025050263053454</v>
+        <v>0.1055364172894042</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0.0217903123731341</v>
+        <v>0.01869721196646871</v>
       </c>
       <c r="V4">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0.01733417283156081</v>
+        <v>0.01390294834653775</v>
       </c>
       <c r="AA4">
         <v>0</v>
@@ -972,16 +972,16 @@
         <v>0</v>
       </c>
       <c r="AC4">
-        <v>0.004350476999973668</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>0.01860537790183923</v>
+        <v>0.01527061023527561</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.04535027622340158</v>
+        <v>0.04404486468704455</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.226287662041849</v>
+        <v>0.2018468388515487</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.1748442556992893</v>
+        <v>0.1576799139124203</v>
       </c>
       <c r="G5">
-        <v>0.02632773609184789</v>
+        <v>0.03017051202633867</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1022,46 +1022,46 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.02316078329112299</v>
+        <v>0.02745151309955766</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.07571771768274636</v>
+        <v>0.07257446162377122</v>
       </c>
       <c r="M5">
-        <v>0.005393393348952774</v>
+        <v>0.01219725538741158</v>
       </c>
       <c r="N5">
-        <v>0.1126443933341342</v>
+        <v>0.1042779942570115</v>
       </c>
       <c r="O5">
-        <v>0.09407710142400329</v>
+        <v>0.08833697778044143</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0.00421551244140142</v>
+        <v>0.0111859814199641</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.002562095814218656</v>
       </c>
       <c r="S5">
-        <v>0.103172248246469</v>
+        <v>0.09614564939801004</v>
       </c>
       <c r="T5">
-        <v>0.03207822532985424</v>
+        <v>0.03510761562416497</v>
       </c>
       <c r="U5">
-        <v>0.02749791974501179</v>
+        <v>0.03117517748783877</v>
       </c>
       <c r="V5">
         <v>0</v>
       </c>
       <c r="W5">
-        <v>0.004611587075943744</v>
+        <v>0.01152603274816807</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -1070,31 +1070,31 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0.007446146702510453</v>
+        <v>0.01395965429780642</v>
       </c>
       <c r="AA5">
-        <v>0.006028214550166459</v>
+        <v>0.01274228345489738</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>0.001458025035188208</v>
       </c>
       <c r="AC5">
         <v>0</v>
       </c>
       <c r="AD5">
-        <v>0.01038565235006716</v>
+        <v>0.01648337763815551</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>0.06611145064463025</v>
+        <v>0.06432696587295648</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>0.005424328175744985</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.003367346094385243</v>
       </c>
       <c r="AI5">
         <v>0</v>
@@ -1111,22 +1111,22 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005718516937492077</v>
+        <v>0.009002186066033873</v>
       </c>
       <c r="E6">
-        <v>0.1260239386286452</v>
+        <v>0.1215374727435533</v>
       </c>
       <c r="F6">
-        <v>0.09703236053234364</v>
+        <v>0.09441836616931558</v>
       </c>
       <c r="G6">
-        <v>0.2516959581816063</v>
+        <v>0.2390927462211017</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.002870632600202734</v>
+        <v>0.00633823729451445</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1135,16 +1135,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.003723239759171308</v>
+        <v>0.007135777336426706</v>
       </c>
       <c r="M6">
-        <v>0.03697724671061999</v>
+        <v>0.03824201638078636</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.1984003352004571</v>
+        <v>0.1892393137944428</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0.03550343160022515</v>
+        <v>0.03686339018400757</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.002084555189856464</v>
       </c>
       <c r="T6">
-        <v>0.1232181012457643</v>
+        <v>0.1189128552507224</v>
       </c>
       <c r="U6">
         <v>0</v>
       </c>
       <c r="V6">
-        <v>0.01316348150469672</v>
+        <v>0.01596630464104868</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1180,31 +1180,31 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.01766478596091157</v>
+        <v>0.02017688451585564</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0.005941462957936017</v>
+        <v>0.009210732729780083</v>
       </c>
       <c r="AD6">
-        <v>0.01415939195377156</v>
+        <v>0.01689789248070143</v>
       </c>
       <c r="AE6">
-        <v>0.007975973097530195</v>
+        <v>0.0111138404915842</v>
       </c>
       <c r="AF6">
-        <v>0.02082942988389696</v>
+        <v>0.02313713440400859</v>
       </c>
       <c r="AG6">
-        <v>0.03910171324472909</v>
+        <v>0.04022927054682486</v>
       </c>
       <c r="AH6">
         <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.00040102355943529</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -1218,22 +1218,22 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00460150984389922</v>
+        <v>0.01105597293612124</v>
       </c>
       <c r="E7">
-        <v>0.197567501277408</v>
+        <v>0.179651932904419</v>
       </c>
       <c r="F7">
-        <v>0.09193016277786409</v>
+        <v>0.0873557289955374</v>
       </c>
       <c r="G7">
-        <v>0.2265049118708638</v>
+        <v>0.2049347844667968</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001945940049247913</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.004670582106979246</v>
       </c>
       <c r="M7">
-        <v>0.01240930132461876</v>
+        <v>0.01787770400979488</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.004266758808842426</v>
       </c>
       <c r="O7">
-        <v>0.2338168865161284</v>
+        <v>0.2113233163289359</v>
       </c>
       <c r="P7">
         <v>0</v>
@@ -1260,25 +1260,25 @@
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0.04519958669367747</v>
+        <v>0.0465268436761272</v>
       </c>
       <c r="S7">
-        <v>0.008806959620541847</v>
+        <v>0.01473030869303019</v>
       </c>
       <c r="T7">
-        <v>0.1069874680807854</v>
+        <v>0.1005114194009967</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>0.002484472269736603</v>
       </c>
       <c r="V7">
-        <v>0.001715572894883189</v>
+        <v>0.008534506294705342</v>
       </c>
       <c r="W7">
-        <v>0.007509343355775448</v>
+        <v>0.01359657078303089</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>0.006313978291260418</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -1287,25 +1287,25 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.002107407687471134</v>
+        <v>0.008876855547620754</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>0.0002626516626315517</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>0.0001423186839373777</v>
       </c>
       <c r="AD7">
-        <v>0.007906387291597462</v>
+        <v>0.01394347130686009</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>0.0006712010810441108</v>
       </c>
       <c r="AF7">
-        <v>0.01432032345533045</v>
+        <v>0.01954737962597214</v>
       </c>
       <c r="AG7">
-        <v>0.03861667730915504</v>
+        <v>0.04077530207637178</v>
       </c>
       <c r="AH7">
         <v>0</v>
@@ -1325,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2347206819815963</v>
+        <v>0.2091330816366072</v>
       </c>
       <c r="E8">
-        <v>0.01775348158051502</v>
+        <v>0.02300727764740517</v>
       </c>
       <c r="F8">
-        <v>0.2537848785369403</v>
+        <v>0.2254873458051643</v>
       </c>
       <c r="G8">
-        <v>0.007723987860678337</v>
+        <v>0.01440345375716544</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0003906730294173694</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -1349,40 +1349,40 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.01929386182924162</v>
+        <v>0.02432869633056709</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.203132720431398</v>
+        <v>0.1820352773185248</v>
       </c>
       <c r="O8">
-        <v>0.009218808154798131</v>
+        <v>0.01568578873013878</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.003119569776767155</v>
       </c>
       <c r="Q8">
-        <v>0.03906814321919452</v>
+        <v>0.04129210838183563</v>
       </c>
       <c r="R8">
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0.1229460649925525</v>
+        <v>0.1132469734404707</v>
       </c>
       <c r="T8">
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0.02514709158553565</v>
+        <v>0.02934990272632569</v>
       </c>
       <c r="V8">
-        <v>0.0008332805258884836</v>
+        <v>0.008492244872268653</v>
       </c>
       <c r="W8">
-        <v>0.01314616217771829</v>
+        <v>0.01905487826862645</v>
       </c>
       <c r="X8">
         <v>0</v>
@@ -1391,25 +1391,25 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.009286541994688376</v>
+        <v>0.01574389435801038</v>
       </c>
       <c r="AA8">
-        <v>0.001705312449564832</v>
+        <v>0.009240319431918553</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>0.002917098357251291</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>0.004509004364567549</v>
       </c>
       <c r="AD8">
-        <v>0.002257418613173687</v>
+        <v>0.009713944954113292</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>0.006235209006510589</v>
       </c>
       <c r="AF8">
-        <v>0.03998156406651612</v>
+        <v>0.04207568852332222</v>
       </c>
       <c r="AG8">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.000537569283021703</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1464825871873487</v>
+        <v>0.1441778060323411</v>
       </c>
       <c r="E9">
-        <v>0.003417688774752119</v>
+        <v>0.004792267852362367</v>
       </c>
       <c r="F9">
-        <v>0.2197102069324823</v>
+        <v>0.2155221490617393</v>
       </c>
       <c r="G9">
-        <v>0.0815054130067346</v>
+        <v>0.08087172261795079</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1450,46 +1450,46 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0006410216246388335</v>
+        <v>0.00208701136136044</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.01727195693870194</v>
+        <v>0.01829023028443763</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.07901521148245648</v>
+        <v>0.07844556439542802</v>
       </c>
       <c r="O9">
-        <v>0.2299794800280541</v>
+        <v>0.2255273157589913</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.001608437651282653</v>
+        <v>0.0030295472664907</v>
       </c>
       <c r="R9">
-        <v>0.02866996579689954</v>
+        <v>0.02939510378246511</v>
       </c>
       <c r="S9">
-        <v>0.07888345626158667</v>
+        <v>0.07831719767114605</v>
       </c>
       <c r="T9">
-        <v>0.02936019947729642</v>
+        <v>0.03006758595020554</v>
       </c>
       <c r="U9">
-        <v>0.02474988074040379</v>
+        <v>0.02557583594406679</v>
       </c>
       <c r="V9">
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0.01076317294124589</v>
+        <v>0.01194883997522139</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.02723196212541854</v>
+        <v>0.02799408286204262</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1510,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.0008560347191670089</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>0.01017120368541603</v>
+        <v>0.01137209505578013</v>
       </c>
       <c r="AG9">
-        <v>0.0105381553452813</v>
+        <v>0.01172960940880366</v>
       </c>
       <c r="AH9">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04136155985493282</v>
+        <v>0.04255957830718306</v>
       </c>
       <c r="E10">
-        <v>0.119073010363214</v>
+        <v>0.1089607662415852</v>
       </c>
       <c r="F10">
-        <v>0.09606335881176828</v>
+        <v>0.08929998025728755</v>
       </c>
       <c r="G10">
-        <v>0.2167005074748206</v>
+        <v>0.1923793839726014</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.004468071869742656</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -1563,16 +1563,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.003506540373788997</v>
       </c>
       <c r="M10">
-        <v>0.002849910983474845</v>
+        <v>0.009652983234621876</v>
       </c>
       <c r="N10">
-        <v>0.02670491536156243</v>
+        <v>0.03003608789326653</v>
       </c>
       <c r="O10">
-        <v>0.2516380492407778</v>
+        <v>0.2222320538377731</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -1581,52 +1581,52 @@
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.0635221881663382</v>
+        <v>0.06149490940222233</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>0.006082392510967215</v>
       </c>
       <c r="T10">
-        <v>0.09445670182645965</v>
+        <v>0.08792715898410557</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>0.004702697068945649</v>
       </c>
       <c r="V10">
-        <v>0.009181942114532819</v>
+        <v>0.01506343930499287</v>
       </c>
       <c r="W10">
-        <v>0.009103606194469267</v>
+        <v>0.01499650453391175</v>
       </c>
       <c r="X10">
-        <v>0.0006621618913341861</v>
+        <v>0.007783643032239868</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.0005581134790404264</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.02584269201971384</v>
+        <v>0.02929935406846917</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>0.003520454255389796</v>
       </c>
       <c r="AC10">
         <v>0</v>
       </c>
       <c r="AD10">
-        <v>0.01255155708508658</v>
+        <v>0.01794263452606872</v>
       </c>
       <c r="AE10">
-        <v>0.001446919430834692</v>
+        <v>0.008454185565193352</v>
       </c>
       <c r="AF10">
-        <v>0.003808286855323851</v>
+        <v>0.01047187537937294</v>
       </c>
       <c r="AG10">
-        <v>0.0250326323253563</v>
+        <v>0.02860719190122991</v>
       </c>
       <c r="AH10">
         <v>0</v>
@@ -1646,19 +1646,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1190286860351193</v>
+        <v>0.116321071660717</v>
       </c>
       <c r="E11">
-        <v>0.01356340302915462</v>
+        <v>0.01544082078067285</v>
       </c>
       <c r="F11">
-        <v>0.3181164445349677</v>
+        <v>0.3067536239867224</v>
       </c>
       <c r="G11">
-        <v>0.1081269726034354</v>
+        <v>0.1058933028759082</v>
       </c>
       <c r="H11">
-        <v>0.002104875371469279</v>
+        <v>0.004480444893208098</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -1670,40 +1670,40 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.01189105778904224</v>
+        <v>0.01384117962320265</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.1203942921770142</v>
+        <v>0.1176273089956122</v>
       </c>
       <c r="O11">
-        <v>0.06678931780949468</v>
+        <v>0.06635277477464145</v>
       </c>
       <c r="P11">
-        <v>0.0006395924502363558</v>
+        <v>0.003078864159803522</v>
       </c>
       <c r="Q11">
-        <v>0.02113995872315821</v>
+        <v>0.02268799082026287</v>
       </c>
       <c r="R11">
-        <v>0.01705616612341561</v>
+        <v>0.01878173835251191</v>
       </c>
       <c r="S11">
-        <v>0.07589843396766391</v>
+        <v>0.07506587824471515</v>
       </c>
       <c r="T11">
-        <v>0.009195406541181157</v>
+        <v>0.01126271999726156</v>
       </c>
       <c r="U11">
-        <v>0.03582624253277406</v>
+        <v>0.03673579833551682</v>
       </c>
       <c r="V11">
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0.013342745229312</v>
+        <v>0.01522975593001955</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.001534007764861096</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0.03291236372761918</v>
+        <v>0.03394859844831373</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>0.03397404135494221</v>
+        <v>0.03496412035604919</v>
       </c>
       <c r="AG11">
         <v>0</v>
@@ -1873,94 +1873,94 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04474526330661761</v>
+        <v>0.04506554898033514</v>
       </c>
       <c r="E2">
-        <v>0.09154401971402706</v>
+        <v>0.0920594269553158</v>
       </c>
       <c r="F2">
-        <v>0.2773632159446193</v>
+        <v>0.2696001983462257</v>
       </c>
       <c r="G2">
-        <v>0.3898809869868529</v>
+        <v>0.378307398548098</v>
       </c>
       <c r="H2">
-        <v>0.3898809869868529</v>
+        <v>0.378307398548098</v>
       </c>
       <c r="I2">
-        <v>0.3898809869868529</v>
+        <v>0.378307398548098</v>
       </c>
       <c r="J2">
-        <v>0.3991880330825154</v>
+        <v>0.3900947535378714</v>
       </c>
       <c r="K2">
-        <v>0.3991880330825154</v>
+        <v>0.3900947535378714</v>
       </c>
       <c r="L2">
-        <v>0.4222119252922811</v>
+        <v>0.4147628881449303</v>
       </c>
       <c r="M2">
-        <v>0.4687045710924892</v>
+        <v>0.4614693135060174</v>
       </c>
       <c r="N2">
-        <v>0.4902952817091545</v>
+        <v>0.4847916215215469</v>
       </c>
       <c r="O2">
-        <v>0.6944240806478343</v>
+        <v>0.6795259923303615</v>
       </c>
       <c r="P2">
-        <v>0.6944240806478343</v>
+        <v>0.6795259923303615</v>
       </c>
       <c r="Q2">
-        <v>0.6944240806478343</v>
+        <v>0.6795259923303615</v>
       </c>
       <c r="R2">
-        <v>0.7306187286179836</v>
+        <v>0.716562101392435</v>
       </c>
       <c r="S2">
-        <v>0.776590979454459</v>
+        <v>0.7627798508008996</v>
       </c>
       <c r="T2">
-        <v>0.8740852340398679</v>
+        <v>0.8573792449555745</v>
       </c>
       <c r="U2">
-        <v>0.892284213606639</v>
+        <v>0.8775165540426788</v>
       </c>
       <c r="V2">
-        <v>0.8966727008481079</v>
+        <v>0.884685145206679</v>
       </c>
       <c r="W2">
-        <v>0.8994811379922908</v>
+        <v>0.8903699931750413</v>
       </c>
       <c r="X2">
-        <v>0.8994811379922908</v>
+        <v>0.8903699931750413</v>
       </c>
       <c r="Y2">
-        <v>0.8994811379922908</v>
+        <v>0.8903699931750413</v>
       </c>
       <c r="Z2">
-        <v>0.8994811379922908</v>
+        <v>0.8903699931750413</v>
       </c>
       <c r="AA2">
-        <v>0.9050853757514651</v>
+        <v>0.8986802326711651</v>
       </c>
       <c r="AB2">
-        <v>0.9050853757514651</v>
+        <v>0.8986802326711651</v>
       </c>
       <c r="AC2">
-        <v>0.9050853757514651</v>
+        <v>0.8986802326711651</v>
       </c>
       <c r="AD2">
-        <v>0.9396119374770058</v>
+        <v>0.9341499283521528</v>
       </c>
       <c r="AE2">
-        <v>0.9396119374770058</v>
+        <v>0.9341499283521528</v>
       </c>
       <c r="AF2">
-        <v>0.99040704639166</v>
+        <v>0.9848965739451854</v>
       </c>
       <c r="AG2">
-        <v>0.9999480098457899</v>
+        <v>0.996903588608765</v>
       </c>
       <c r="AH2">
         <v>1</v>
@@ -1980,91 +1980,91 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.08884610831446711</v>
+        <v>0.1025561676325245</v>
       </c>
       <c r="E3">
-        <v>0.1142273469104462</v>
+        <v>0.1025561676325245</v>
       </c>
       <c r="F3">
-        <v>0.2769970867553525</v>
+        <v>0.3311945565842522</v>
       </c>
       <c r="G3">
-        <v>0.3697463334929477</v>
+        <v>0.440407815492138</v>
       </c>
       <c r="H3">
-        <v>0.3697463334929477</v>
+        <v>0.440407815492138</v>
       </c>
       <c r="I3">
-        <v>0.3697463334929477</v>
+        <v>0.440407815492138</v>
       </c>
       <c r="J3">
-        <v>0.4000311165283329</v>
+        <v>0.4430833113865219</v>
       </c>
       <c r="K3">
-        <v>0.4000311165283329</v>
+        <v>0.4430833113865219</v>
       </c>
       <c r="L3">
-        <v>0.4287472218343109</v>
+        <v>0.4430833113865219</v>
       </c>
       <c r="M3">
-        <v>0.4718491336941463</v>
+        <v>0.467619368506928</v>
       </c>
       <c r="N3">
-        <v>0.4862247933407912</v>
+        <v>0.467619368506928</v>
       </c>
       <c r="O3">
-        <v>0.740137970958116</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="P3">
-        <v>0.740137970958116</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="Q3">
-        <v>0.740137970958116</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="R3">
-        <v>0.7628302184265234</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="S3">
-        <v>0.8025527545895709</v>
+        <v>0.8704819138972827</v>
       </c>
       <c r="T3">
-        <v>0.8990285120960098</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="U3">
-        <v>0.8990285120960098</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="V3">
-        <v>0.9003422905555735</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="W3">
-        <v>0.9003422905555735</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="X3">
-        <v>0.9003422905555735</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="Y3">
-        <v>0.9003422905555735</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="Z3">
-        <v>0.9003422905555735</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="AA3">
-        <v>0.927367676420386</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="AB3">
-        <v>0.927367676420386</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="AC3">
-        <v>0.927367676420386</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="AD3">
-        <v>0.9343893182479804</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="AE3">
-        <v>0.9343893182479804</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="AF3">
-        <v>0.9683674350800903</v>
+        <v>0.9950257624131893</v>
       </c>
       <c r="AG3">
         <v>1</v>
@@ -2087,100 +2087,100 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2616502453699902</v>
+        <v>0.276757297364939</v>
       </c>
       <c r="E4">
-        <v>0.2682545753824218</v>
+        <v>0.2791162411767429</v>
       </c>
       <c r="F4">
-        <v>0.5556766534062374</v>
+        <v>0.5836008928039232</v>
       </c>
       <c r="G4">
-        <v>0.5687581296291356</v>
+        <v>0.5929284573575386</v>
       </c>
       <c r="H4">
-        <v>0.5731698845915785</v>
+        <v>0.5929284573575386</v>
       </c>
       <c r="I4">
-        <v>0.5800999566777069</v>
+        <v>0.5956378599821414</v>
       </c>
       <c r="J4">
-        <v>0.5800999566777069</v>
+        <v>0.5956378599821414</v>
       </c>
       <c r="K4">
-        <v>0.5800999566777069</v>
+        <v>0.5956378599821414</v>
       </c>
       <c r="L4">
-        <v>0.631596475351374</v>
+        <v>0.6462953332519459</v>
       </c>
       <c r="M4">
-        <v>0.631596475351374</v>
+        <v>0.6462953332519459</v>
       </c>
       <c r="N4">
-        <v>0.7595044167445073</v>
+        <v>0.7791621944175708</v>
       </c>
       <c r="O4">
-        <v>0.7677682387193752</v>
+        <v>0.7833065495408588</v>
       </c>
       <c r="P4">
-        <v>0.7677682387193752</v>
+        <v>0.7833065495408588</v>
       </c>
       <c r="Q4">
-        <v>0.7900643573647451</v>
+        <v>0.8025479474752689</v>
       </c>
       <c r="R4">
-        <v>0.7900643573647451</v>
+        <v>0.8025479474752689</v>
       </c>
       <c r="S4">
-        <v>0.8925693836700905</v>
+        <v>0.9080843647646731</v>
       </c>
       <c r="T4">
-        <v>0.8925693836700905</v>
+        <v>0.9080843647646731</v>
       </c>
       <c r="U4">
-        <v>0.9143596960432246</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="V4">
-        <v>0.9143596960432246</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="W4">
-        <v>0.9143596960432246</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="X4">
-        <v>0.9143596960432246</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="Y4">
-        <v>0.9143596960432246</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="Z4">
-        <v>0.9316938688747854</v>
+        <v>0.9406845250776795</v>
       </c>
       <c r="AA4">
-        <v>0.9316938688747854</v>
+        <v>0.9406845250776795</v>
       </c>
       <c r="AB4">
-        <v>0.9316938688747854</v>
+        <v>0.9406845250776795</v>
       </c>
       <c r="AC4">
-        <v>0.9360443458747592</v>
+        <v>0.9406845250776795</v>
       </c>
       <c r="AD4">
-        <v>0.9546497237765984</v>
+        <v>0.9559551353129552</v>
       </c>
       <c r="AE4">
-        <v>0.9546497237765984</v>
+        <v>0.9559551353129552</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -2194,94 +2194,94 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.226287662041849</v>
+        <v>0.2018468388515487</v>
       </c>
       <c r="E5">
-        <v>0.226287662041849</v>
+        <v>0.2018468388515487</v>
       </c>
       <c r="F5">
-        <v>0.4011319177411383</v>
+        <v>0.3595267527639691</v>
       </c>
       <c r="G5">
-        <v>0.4274596538329862</v>
+        <v>0.3896972647903078</v>
       </c>
       <c r="H5">
-        <v>0.4274596538329862</v>
+        <v>0.3896972647903078</v>
       </c>
       <c r="I5">
-        <v>0.4274596538329862</v>
+        <v>0.3896972647903078</v>
       </c>
       <c r="J5">
-        <v>0.4506204371241092</v>
+        <v>0.4171487778898654</v>
       </c>
       <c r="K5">
-        <v>0.4506204371241092</v>
+        <v>0.4171487778898654</v>
       </c>
       <c r="L5">
-        <v>0.5263381548068555</v>
+        <v>0.4897232395136367</v>
       </c>
       <c r="M5">
-        <v>0.5317315481558083</v>
+        <v>0.5019204949010483</v>
       </c>
       <c r="N5">
-        <v>0.6443759414899424</v>
+        <v>0.6061984891580599</v>
       </c>
       <c r="O5">
-        <v>0.7384530429139456</v>
+        <v>0.6945354669385013</v>
       </c>
       <c r="P5">
-        <v>0.7384530429139456</v>
+        <v>0.6945354669385013</v>
       </c>
       <c r="Q5">
-        <v>0.742668555355347</v>
+        <v>0.7057214483584654</v>
       </c>
       <c r="R5">
-        <v>0.742668555355347</v>
+        <v>0.708283544172684</v>
       </c>
       <c r="S5">
-        <v>0.845840803601816</v>
+        <v>0.8044291935706941</v>
       </c>
       <c r="T5">
-        <v>0.8779190289316703</v>
+        <v>0.8395368091948591</v>
       </c>
       <c r="U5">
-        <v>0.9054169486766821</v>
+        <v>0.8707119866826979</v>
       </c>
       <c r="V5">
-        <v>0.9054169486766821</v>
+        <v>0.8707119866826979</v>
       </c>
       <c r="W5">
-        <v>0.9100285357526259</v>
+        <v>0.882238019430866</v>
       </c>
       <c r="X5">
-        <v>0.9100285357526259</v>
+        <v>0.882238019430866</v>
       </c>
       <c r="Y5">
-        <v>0.9100285357526259</v>
+        <v>0.882238019430866</v>
       </c>
       <c r="Z5">
-        <v>0.9174746824551363</v>
+        <v>0.8961976737286724</v>
       </c>
       <c r="AA5">
-        <v>0.9235028970053027</v>
+        <v>0.9089399571835698</v>
       </c>
       <c r="AB5">
-        <v>0.9235028970053027</v>
+        <v>0.910397982218758</v>
       </c>
       <c r="AC5">
-        <v>0.9235028970053027</v>
+        <v>0.910397982218758</v>
       </c>
       <c r="AD5">
-        <v>0.9338885493553699</v>
+        <v>0.9268813598569136</v>
       </c>
       <c r="AE5">
-        <v>0.9338885493553699</v>
+        <v>0.9268813598569136</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0.9912083257298701</v>
       </c>
       <c r="AG5">
-        <v>1</v>
+        <v>0.9966326539056151</v>
       </c>
       <c r="AH5">
         <v>1</v>
@@ -2301,100 +2301,100 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005718516937492077</v>
+        <v>0.009002186066033873</v>
       </c>
       <c r="E6">
-        <v>0.1317424555661373</v>
+        <v>0.1305396588095872</v>
       </c>
       <c r="F6">
-        <v>0.2287748160984809</v>
+        <v>0.2249580249789027</v>
       </c>
       <c r="G6">
-        <v>0.4804707742800872</v>
+        <v>0.4640507712000044</v>
       </c>
       <c r="H6">
-        <v>0.4804707742800872</v>
+        <v>0.4640507712000044</v>
       </c>
       <c r="I6">
-        <v>0.48334140688029</v>
+        <v>0.4703890084945189</v>
       </c>
       <c r="J6">
-        <v>0.48334140688029</v>
+        <v>0.4703890084945189</v>
       </c>
       <c r="K6">
-        <v>0.48334140688029</v>
+        <v>0.4703890084945189</v>
       </c>
       <c r="L6">
-        <v>0.4870646466394613</v>
+        <v>0.4775247858309456</v>
       </c>
       <c r="M6">
-        <v>0.5240418933500813</v>
+        <v>0.515766802211732</v>
       </c>
       <c r="N6">
-        <v>0.5240418933500813</v>
+        <v>0.515766802211732</v>
       </c>
       <c r="O6">
-        <v>0.7224422285505384</v>
+        <v>0.7050061160061747</v>
       </c>
       <c r="P6">
-        <v>0.7224422285505384</v>
+        <v>0.7050061160061747</v>
       </c>
       <c r="Q6">
-        <v>0.7224422285505384</v>
+        <v>0.7050061160061747</v>
       </c>
       <c r="R6">
-        <v>0.7579456601507636</v>
+        <v>0.7418695061901822</v>
       </c>
       <c r="S6">
-        <v>0.7579456601507636</v>
+        <v>0.7439540613800387</v>
       </c>
       <c r="T6">
-        <v>0.881163761396528</v>
+        <v>0.8628669166307611</v>
       </c>
       <c r="U6">
-        <v>0.881163761396528</v>
+        <v>0.8628669166307611</v>
       </c>
       <c r="V6">
-        <v>0.8943272429012247</v>
+        <v>0.8788332212718097</v>
       </c>
       <c r="W6">
-        <v>0.8943272429012247</v>
+        <v>0.8788332212718097</v>
       </c>
       <c r="X6">
-        <v>0.8943272429012247</v>
+        <v>0.8788332212718097</v>
       </c>
       <c r="Y6">
-        <v>0.8943272429012247</v>
+        <v>0.8788332212718097</v>
       </c>
       <c r="Z6">
-        <v>0.8943272429012247</v>
+        <v>0.8788332212718097</v>
       </c>
       <c r="AA6">
-        <v>0.9119920288621363</v>
+        <v>0.8990101057876654</v>
       </c>
       <c r="AB6">
-        <v>0.9119920288621363</v>
+        <v>0.8990101057876654</v>
       </c>
       <c r="AC6">
-        <v>0.9179334918200723</v>
+        <v>0.9082208385174455</v>
       </c>
       <c r="AD6">
-        <v>0.9320928837738439</v>
+        <v>0.9251187309981469</v>
       </c>
       <c r="AE6">
-        <v>0.9400688568713741</v>
+        <v>0.936232571489731</v>
       </c>
       <c r="AF6">
-        <v>0.960898286755271</v>
+        <v>0.9593697058937396</v>
       </c>
       <c r="AG6">
-        <v>1</v>
+        <v>0.9995989764405645</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>0.9995989764405645</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:35">
@@ -2408,91 +2408,91 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.00460150984389922</v>
+        <v>0.01105597293612124</v>
       </c>
       <c r="E7">
-        <v>0.2021690111213073</v>
+        <v>0.1907079058405402</v>
       </c>
       <c r="F7">
-        <v>0.2940991738991714</v>
+        <v>0.2780636348360777</v>
       </c>
       <c r="G7">
-        <v>0.5206040857700353</v>
+        <v>0.4829984193028745</v>
       </c>
       <c r="H7">
-        <v>0.5206040857700353</v>
+        <v>0.4829984193028745</v>
       </c>
       <c r="I7">
-        <v>0.5206040857700353</v>
+        <v>0.4849443593521224</v>
       </c>
       <c r="J7">
-        <v>0.5206040857700353</v>
+        <v>0.4849443593521224</v>
       </c>
       <c r="K7">
-        <v>0.5206040857700353</v>
+        <v>0.4849443593521224</v>
       </c>
       <c r="L7">
-        <v>0.5206040857700353</v>
+        <v>0.4896149414591016</v>
       </c>
       <c r="M7">
-        <v>0.5330133870946541</v>
+        <v>0.5074926454688965</v>
       </c>
       <c r="N7">
-        <v>0.5330133870946541</v>
+        <v>0.5117594042777389</v>
       </c>
       <c r="O7">
-        <v>0.7668302736107824</v>
+        <v>0.7230827206066748</v>
       </c>
       <c r="P7">
-        <v>0.7668302736107824</v>
+        <v>0.7230827206066748</v>
       </c>
       <c r="Q7">
-        <v>0.7668302736107824</v>
+        <v>0.7230827206066748</v>
       </c>
       <c r="R7">
-        <v>0.8120298603044599</v>
+        <v>0.769609564282802</v>
       </c>
       <c r="S7">
-        <v>0.8208368199250018</v>
+        <v>0.7843398729758322</v>
       </c>
       <c r="T7">
-        <v>0.9278242880057872</v>
+        <v>0.8848512923768289</v>
       </c>
       <c r="U7">
-        <v>0.9278242880057872</v>
+        <v>0.8873357646465655</v>
       </c>
       <c r="V7">
-        <v>0.9295398609006704</v>
+        <v>0.8958702709412708</v>
       </c>
       <c r="W7">
-        <v>0.9370492042564459</v>
+        <v>0.9094668417243017</v>
       </c>
       <c r="X7">
-        <v>0.9370492042564459</v>
+        <v>0.9157808200155622</v>
       </c>
       <c r="Y7">
-        <v>0.9370492042564459</v>
+        <v>0.9157808200155622</v>
       </c>
       <c r="Z7">
-        <v>0.9370492042564459</v>
+        <v>0.9157808200155622</v>
       </c>
       <c r="AA7">
-        <v>0.939156611943917</v>
+        <v>0.9246576755631829</v>
       </c>
       <c r="AB7">
-        <v>0.939156611943917</v>
+        <v>0.9249203272258144</v>
       </c>
       <c r="AC7">
-        <v>0.939156611943917</v>
+        <v>0.9250626459097517</v>
       </c>
       <c r="AD7">
-        <v>0.9470629992355144</v>
+        <v>0.9390061172166119</v>
       </c>
       <c r="AE7">
-        <v>0.9470629992355144</v>
+        <v>0.939677318297656</v>
       </c>
       <c r="AF7">
-        <v>0.9613833226908448</v>
+        <v>0.9592246979236281</v>
       </c>
       <c r="AG7">
         <v>0.9999999999999999</v>
@@ -2515,100 +2515,100 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2347206819815963</v>
+        <v>0.2091330816366072</v>
       </c>
       <c r="E8">
-        <v>0.2524741635621113</v>
+        <v>0.2321403592840123</v>
       </c>
       <c r="F8">
-        <v>0.5062590420990516</v>
+        <v>0.4576277050891766</v>
       </c>
       <c r="G8">
-        <v>0.5139830299597299</v>
+        <v>0.4720311588463421</v>
       </c>
       <c r="H8">
-        <v>0.5139830299597299</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="I8">
-        <v>0.5139830299597299</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="J8">
-        <v>0.5139830299597299</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="K8">
-        <v>0.5139830299597299</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="L8">
-        <v>0.5332768917889715</v>
+        <v>0.4967505282063265</v>
       </c>
       <c r="M8">
-        <v>0.5332768917889715</v>
+        <v>0.4967505282063265</v>
       </c>
       <c r="N8">
-        <v>0.7364096122203696</v>
+        <v>0.6787858055248513</v>
       </c>
       <c r="O8">
-        <v>0.7456284203751677</v>
+        <v>0.6944715942549902</v>
       </c>
       <c r="P8">
-        <v>0.7456284203751677</v>
+        <v>0.6975911640317574</v>
       </c>
       <c r="Q8">
-        <v>0.7846965635943622</v>
+        <v>0.738883272413593</v>
       </c>
       <c r="R8">
-        <v>0.7846965635943622</v>
+        <v>0.738883272413593</v>
       </c>
       <c r="S8">
-        <v>0.9076426285869147</v>
+        <v>0.8521302458540636</v>
       </c>
       <c r="T8">
-        <v>0.9076426285869147</v>
+        <v>0.8521302458540636</v>
       </c>
       <c r="U8">
-        <v>0.9327897201724503</v>
+        <v>0.8814801485803893</v>
       </c>
       <c r="V8">
-        <v>0.9336230006983388</v>
+        <v>0.8899723934526579</v>
       </c>
       <c r="W8">
-        <v>0.9467691628760571</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="X8">
-        <v>0.9467691628760571</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="Y8">
-        <v>0.9467691628760571</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="Z8">
-        <v>0.9560557048707454</v>
+        <v>0.9247711660792947</v>
       </c>
       <c r="AA8">
-        <v>0.9577610173203103</v>
+        <v>0.9340114855112132</v>
       </c>
       <c r="AB8">
-        <v>0.9577610173203103</v>
+        <v>0.9369285838684644</v>
       </c>
       <c r="AC8">
-        <v>0.9577610173203103</v>
+        <v>0.941437588233032</v>
       </c>
       <c r="AD8">
-        <v>0.9600184359334839</v>
+        <v>0.9511515331871453</v>
       </c>
       <c r="AE8">
-        <v>0.9600184359334839</v>
+        <v>0.9573867421936559</v>
       </c>
       <c r="AF8">
-        <v>1</v>
+        <v>0.9994624307169782</v>
       </c>
       <c r="AG8">
-        <v>1</v>
+        <v>0.9994624307169782</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>0.9994624307169782</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -2622,91 +2622,91 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.1464825871873487</v>
+        <v>0.1441778060323411</v>
       </c>
       <c r="E9">
-        <v>0.1499002759621008</v>
+        <v>0.1489700738847035</v>
       </c>
       <c r="F9">
-        <v>0.3696104828945831</v>
+        <v>0.3644922229464428</v>
       </c>
       <c r="G9">
-        <v>0.4511158959013177</v>
+        <v>0.4453639455643936</v>
       </c>
       <c r="H9">
-        <v>0.4511158959013177</v>
+        <v>0.4453639455643936</v>
       </c>
       <c r="I9">
-        <v>0.4511158959013177</v>
+        <v>0.4453639455643936</v>
       </c>
       <c r="J9">
-        <v>0.4517569175259566</v>
+        <v>0.447450956925754</v>
       </c>
       <c r="K9">
-        <v>0.4517569175259566</v>
+        <v>0.447450956925754</v>
       </c>
       <c r="L9">
-        <v>0.4690288744646585</v>
+        <v>0.4657411872101916</v>
       </c>
       <c r="M9">
-        <v>0.4690288744646585</v>
+        <v>0.4657411872101916</v>
       </c>
       <c r="N9">
-        <v>0.548044085947115</v>
+        <v>0.5441867516056196</v>
       </c>
       <c r="O9">
-        <v>0.7780235659751691</v>
+        <v>0.7697140673646109</v>
       </c>
       <c r="P9">
-        <v>0.7780235659751691</v>
+        <v>0.7697140673646109</v>
       </c>
       <c r="Q9">
-        <v>0.7796320036264517</v>
+        <v>0.7727436146311016</v>
       </c>
       <c r="R9">
-        <v>0.8083019694233512</v>
+        <v>0.8021387184135668</v>
       </c>
       <c r="S9">
-        <v>0.8871854256849379</v>
+        <v>0.8804559160847129</v>
       </c>
       <c r="T9">
-        <v>0.9165456251622343</v>
+        <v>0.9105235020349184</v>
       </c>
       <c r="U9">
-        <v>0.941295505902638</v>
+        <v>0.9360993379789851</v>
       </c>
       <c r="V9">
-        <v>0.941295505902638</v>
+        <v>0.9360993379789851</v>
       </c>
       <c r="W9">
-        <v>0.9520586788438838</v>
+        <v>0.9480481779542065</v>
       </c>
       <c r="X9">
-        <v>0.9520586788438838</v>
+        <v>0.9480481779542065</v>
       </c>
       <c r="Y9">
-        <v>0.9520586788438838</v>
+        <v>0.9480481779542065</v>
       </c>
       <c r="Z9">
-        <v>0.9520586788438838</v>
+        <v>0.9480481779542065</v>
       </c>
       <c r="AA9">
-        <v>0.9792906409693024</v>
+        <v>0.9760422608162491</v>
       </c>
       <c r="AB9">
-        <v>0.9792906409693024</v>
+        <v>0.9760422608162491</v>
       </c>
       <c r="AC9">
-        <v>0.9792906409693024</v>
+        <v>0.9760422608162491</v>
       </c>
       <c r="AD9">
-        <v>0.9792906409693024</v>
+        <v>0.9768982955354161</v>
       </c>
       <c r="AE9">
-        <v>0.9792906409693024</v>
+        <v>0.9768982955354161</v>
       </c>
       <c r="AF9">
-        <v>0.9894618446547184</v>
+        <v>0.9882703905911961</v>
       </c>
       <c r="AG9">
         <v>0.9999999999999998</v>
@@ -2729,91 +2729,91 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04136155985493282</v>
+        <v>0.04255957830718306</v>
       </c>
       <c r="E10">
-        <v>0.1604345702181468</v>
+        <v>0.1515203445487683</v>
       </c>
       <c r="F10">
-        <v>0.2564979290299151</v>
+        <v>0.2408203248060558</v>
       </c>
       <c r="G10">
-        <v>0.4731984365047356</v>
+        <v>0.4331997087786572</v>
       </c>
       <c r="H10">
-        <v>0.4731984365047356</v>
+        <v>0.4376677806483998</v>
       </c>
       <c r="I10">
-        <v>0.4731984365047356</v>
+        <v>0.4376677806483998</v>
       </c>
       <c r="J10">
-        <v>0.4731984365047356</v>
+        <v>0.4376677806483998</v>
       </c>
       <c r="K10">
-        <v>0.4731984365047356</v>
+        <v>0.4376677806483998</v>
       </c>
       <c r="L10">
-        <v>0.4731984365047356</v>
+        <v>0.4411743210221888</v>
       </c>
       <c r="M10">
-        <v>0.4760483474882105</v>
+        <v>0.4508273042568107</v>
       </c>
       <c r="N10">
-        <v>0.502753262849773</v>
+        <v>0.4808633921500772</v>
       </c>
       <c r="O10">
-        <v>0.7543913120905508</v>
+        <v>0.7030954459878503</v>
       </c>
       <c r="P10">
-        <v>0.7543913120905508</v>
+        <v>0.7030954459878503</v>
       </c>
       <c r="Q10">
-        <v>0.7543913120905508</v>
+        <v>0.7030954459878503</v>
       </c>
       <c r="R10">
-        <v>0.8179135002568889</v>
+        <v>0.7645903553900727</v>
       </c>
       <c r="S10">
-        <v>0.8179135002568889</v>
+        <v>0.7706727479010399</v>
       </c>
       <c r="T10">
-        <v>0.9123702020833486</v>
+        <v>0.8585999068851454</v>
       </c>
       <c r="U10">
-        <v>0.9123702020833486</v>
+        <v>0.8633026039540911</v>
       </c>
       <c r="V10">
-        <v>0.9215521441978815</v>
+        <v>0.878366043259084</v>
       </c>
       <c r="W10">
-        <v>0.9306557503923507</v>
+        <v>0.8933625477929957</v>
       </c>
       <c r="X10">
-        <v>0.9313179122836849</v>
+        <v>0.9011461908252356</v>
       </c>
       <c r="Y10">
-        <v>0.9313179122836849</v>
+        <v>0.9017043043042761</v>
       </c>
       <c r="Z10">
-        <v>0.9313179122836849</v>
+        <v>0.9017043043042761</v>
       </c>
       <c r="AA10">
-        <v>0.9571606043033987</v>
+        <v>0.9310036583727452</v>
       </c>
       <c r="AB10">
-        <v>0.9571606043033987</v>
+        <v>0.9345241126281351</v>
       </c>
       <c r="AC10">
-        <v>0.9571606043033987</v>
+        <v>0.9345241126281351</v>
       </c>
       <c r="AD10">
-        <v>0.9697121613884853</v>
+        <v>0.9524667471542038</v>
       </c>
       <c r="AE10">
-        <v>0.9711590808193199</v>
+        <v>0.9609209327193972</v>
       </c>
       <c r="AF10">
-        <v>0.9749673676746438</v>
+        <v>0.97139280809877</v>
       </c>
       <c r="AG10">
         <v>1</v>
@@ -2836,88 +2836,88 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.1190286860351193</v>
+        <v>0.116321071660717</v>
       </c>
       <c r="E11">
-        <v>0.1325920890642739</v>
+        <v>0.1317618924413898</v>
       </c>
       <c r="F11">
-        <v>0.4507085335992416</v>
+        <v>0.4385155164281122</v>
       </c>
       <c r="G11">
-        <v>0.558835506202677</v>
+        <v>0.5444088193040204</v>
       </c>
       <c r="H11">
-        <v>0.5609403815741463</v>
+        <v>0.5488892641972285</v>
       </c>
       <c r="I11">
-        <v>0.5609403815741463</v>
+        <v>0.5488892641972285</v>
       </c>
       <c r="J11">
-        <v>0.5609403815741463</v>
+        <v>0.5488892641972285</v>
       </c>
       <c r="K11">
-        <v>0.5609403815741463</v>
+        <v>0.5488892641972285</v>
       </c>
       <c r="L11">
-        <v>0.5728314393631885</v>
+        <v>0.5627304438204311</v>
       </c>
       <c r="M11">
-        <v>0.5728314393631885</v>
+        <v>0.5627304438204311</v>
       </c>
       <c r="N11">
-        <v>0.6932257315402026</v>
+        <v>0.6803577528160434</v>
       </c>
       <c r="O11">
-        <v>0.7600150493496973</v>
+        <v>0.7467105275906848</v>
       </c>
       <c r="P11">
-        <v>0.7606546417999337</v>
+        <v>0.7497893917504883</v>
       </c>
       <c r="Q11">
-        <v>0.7817946005230919</v>
+        <v>0.7724773825707512</v>
       </c>
       <c r="R11">
-        <v>0.7988507666465076</v>
+        <v>0.7912591209232631</v>
       </c>
       <c r="S11">
-        <v>0.8747492006141715</v>
+        <v>0.8663249991679782</v>
       </c>
       <c r="T11">
-        <v>0.8839446071553526</v>
+        <v>0.8775877191652398</v>
       </c>
       <c r="U11">
-        <v>0.9197708496881267</v>
+        <v>0.9143235175007567</v>
       </c>
       <c r="V11">
-        <v>0.9197708496881267</v>
+        <v>0.9143235175007567</v>
       </c>
       <c r="W11">
-        <v>0.9331135949174387</v>
+        <v>0.9295532734307762</v>
       </c>
       <c r="X11">
-        <v>0.9331135949174387</v>
+        <v>0.9295532734307762</v>
       </c>
       <c r="Y11">
-        <v>0.9331135949174387</v>
+        <v>0.9295532734307762</v>
       </c>
       <c r="Z11">
-        <v>0.9331135949174387</v>
+        <v>0.9310872811956373</v>
       </c>
       <c r="AA11">
-        <v>0.9331135949174387</v>
+        <v>0.9310872811956373</v>
       </c>
       <c r="AB11">
-        <v>0.9331135949174387</v>
+        <v>0.9310872811956373</v>
       </c>
       <c r="AC11">
-        <v>0.9331135949174387</v>
+        <v>0.9310872811956373</v>
       </c>
       <c r="AD11">
-        <v>0.9660259586450579</v>
+        <v>0.9650358796439511</v>
       </c>
       <c r="AE11">
-        <v>0.9660259586450579</v>
+        <v>0.9650358796439511</v>
       </c>
       <c r="AF11">
         <v>1</v>
@@ -3003,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6944240806478343</v>
+        <v>0.6795259923303615</v>
       </c>
       <c r="G2">
         <v>12</v>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.740137970958116</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5556766534062374</v>
+        <v>0.5836008928039232</v>
       </c>
       <c r="G4">
         <v>4</v>
@@ -3120,16 +3120,16 @@
         <v>1</v>
       </c>
       <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0.5019204949010483</v>
+      </c>
+      <c r="G5">
         <v>11</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5263381548068555</v>
-      </c>
-      <c r="G5">
-        <v>10</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -3167,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5240418933500813</v>
+        <v>0.515766802211732</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3202,16 +3202,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5206040857700353</v>
+        <v>0.5074926454688965</v>
       </c>
       <c r="G7">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H7">
         <v>56</v>
@@ -3243,16 +3243,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5062590420990516</v>
+        <v>0.6787858055248513</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H8">
         <v>56</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.548044085947115</v>
+        <v>0.5441867516056196</v>
       </c>
       <c r="G9">
         <v>12</v>
@@ -3325,16 +3325,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.502753262849773</v>
+        <v>0.7030954459878503</v>
       </c>
       <c r="G10">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H10">
         <v>56</v>
@@ -3372,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.558835506202677</v>
+        <v>0.5444088193040204</v>
       </c>
       <c r="G11">
         <v>5</v>
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7306187286179836</v>
+        <v>0.716562101392435</v>
       </c>
       <c r="G2">
         <v>15</v>
@@ -3508,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.740137970958116</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="G3">
         <v>13</v>
@@ -3549,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.7595044167445073</v>
+        <v>0.7791621944175708</v>
       </c>
       <c r="G4">
         <v>12</v>
@@ -3584,16 +3584,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.7384530429139456</v>
+        <v>0.7057214483584654</v>
       </c>
       <c r="G5">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7224422285505384</v>
+        <v>0.7050061160061747</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3672,7 +3672,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7668302736107824</v>
+        <v>0.7230827206066748</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3707,16 +3707,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7364096122203696</v>
+        <v>0.738883272413593</v>
       </c>
       <c r="G8">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H8">
         <v>56</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7780235659751691</v>
+        <v>0.7697140673646109</v>
       </c>
       <c r="G9">
         <v>13</v>
@@ -3795,7 +3795,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7543913120905508</v>
+        <v>0.7030954459878503</v>
       </c>
       <c r="G10">
         <v>12</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.7600150493496973</v>
+        <v>0.7467105275906848</v>
       </c>
       <c r="G11">
         <v>13</v>
@@ -3931,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.8740852340398679</v>
+        <v>0.8573792449555745</v>
       </c>
       <c r="G2">
         <v>17</v>
@@ -3966,16 +3966,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.8025527545895709</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="G3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -4007,16 +4007,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.8925693836700905</v>
+        <v>0.8025479474752689</v>
       </c>
       <c r="G4">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -4054,7 +4054,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.845840803601816</v>
+        <v>0.8044291935706941</v>
       </c>
       <c r="G5">
         <v>17</v>
@@ -4095,7 +4095,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.881163761396528</v>
+        <v>0.8628669166307611</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -4130,16 +4130,16 @@
         <v>2</v>
       </c>
       <c r="D7">
+        <v>19</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0.8848512923768289</v>
+      </c>
+      <c r="G7">
         <v>17</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0.8120298603044599</v>
-      </c>
-      <c r="G7">
-        <v>15</v>
       </c>
       <c r="H7">
         <v>56</v>
@@ -4177,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9076426285869147</v>
+        <v>0.8521302458540636</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8083019694233512</v>
+        <v>0.8021387184135668</v>
       </c>
       <c r="G9">
         <v>16</v>
@@ -4253,16 +4253,16 @@
         <v>2</v>
       </c>
       <c r="D10">
+        <v>19</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0.8585999068851454</v>
+      </c>
+      <c r="G10">
         <v>17</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0.8179135002568889</v>
-      </c>
-      <c r="G10">
-        <v>15</v>
       </c>
       <c r="H10">
         <v>56</v>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8747492006141715</v>
+        <v>0.8663249991679782</v>
       </c>
       <c r="G11">
         <v>17</v>
@@ -4389,16 +4389,16 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9050853757514651</v>
+        <v>0.9341499283521528</v>
       </c>
       <c r="G2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>56</v>
@@ -4430,16 +4430,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9003422905555735</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3">
         <v>56</v>
@@ -4471,16 +4471,16 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9143596960432246</v>
+        <v>0.9080843647646731</v>
       </c>
       <c r="G4">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H4">
         <v>56</v>
@@ -4512,16 +4512,16 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9054169486766821</v>
+        <v>0.9089399571835698</v>
       </c>
       <c r="G5">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>56</v>
@@ -4553,16 +4553,16 @@
         <v>2</v>
       </c>
       <c r="D6">
+        <v>28</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0.9082208385174455</v>
+      </c>
+      <c r="G6">
         <v>26</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.9119920288621363</v>
-      </c>
-      <c r="G6">
-        <v>24</v>
       </c>
       <c r="H6">
         <v>56</v>
@@ -4594,16 +4594,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9278242880057872</v>
+        <v>0.9094668417243017</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H7">
         <v>56</v>
@@ -4635,16 +4635,16 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9076426285869147</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H8">
         <v>56</v>
@@ -4682,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9165456251622343</v>
+        <v>0.9105235020349184</v>
       </c>
       <c r="G9">
         <v>18</v>
@@ -4717,16 +4717,16 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9123702020833486</v>
+        <v>0.9011461908252356</v>
       </c>
       <c r="G10">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H10">
         <v>56</v>
@@ -4764,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9197708496881267</v>
+        <v>0.9143235175007567</v>
       </c>
       <c r="G11">
         <v>19</v>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/56_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/56_11R22.xlsx
@@ -19,7 +19,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
+  <si>
+    <t>Signal_Value_88</t>
+  </si>
   <si>
     <t>Signal_Value_89</t>
   </si>
@@ -559,15 +562,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -671,10 +674,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -683,68 +689,68 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.04506554898033514</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.04699387797498067</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.1775407713909099</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.1087072002018723</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>0.01178735498977335</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
       <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
         <v>0.02466813460705891</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.0467064253610871</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.02332230801552953</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>0.1947343708088146</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
         <v>0.03703610906207358</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.04621774940846457</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.09459939415467487</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.02013730908710427</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.007168591164000124</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>0.005684847968362348</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
       <c r="Y2">
         <v>0</v>
       </c>
@@ -752,36 +758,39 @@
         <v>0</v>
       </c>
       <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>0.008310239496123903</v>
       </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
         <v>0.03546969568098763</v>
       </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
       <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
         <v>0.05074664559303249</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.01200701466357964</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>0.003096411391235199</v>
       </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -790,44 +799,44 @@
         <v>0</v>
       </c>
       <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
         <v>0.1025561676325245</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
         <v>0.2286383889517278</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1092132589078858</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>0.002675495894383851</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <v>0.02453605712040613</v>
       </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
       <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0.3840902634755502</v>
       </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
       <c r="Q3">
         <v>0</v>
       </c>
@@ -835,14 +844,14 @@
         <v>0</v>
       </c>
       <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
         <v>0.01877228191480454</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1155690986546423</v>
       </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
       <c r="V3">
         <v>0</v>
       </c>
@@ -874,21 +883,24 @@
         <v>0</v>
       </c>
       <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
         <v>0.008974749861264187</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>0.00497423758681073</v>
       </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
       <c r="AI3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -897,62 +909,62 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.276757297364939</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.002358943811803895</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.3044846516271803</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.009327564553615442</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
         <v>0.002709402624602713</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
         <v>0.05065747326980447</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>0.132866861165625</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>0.004144355123287933</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
       <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
         <v>0.01924139793441013</v>
       </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
       <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
         <v>0.1055364172894042</v>
       </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
       <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
         <v>0.01869721196646871</v>
       </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
       <c r="W4">
         <v>0</v>
       </c>
@@ -963,11 +975,11 @@
         <v>0</v>
       </c>
       <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
         <v>0.01390294834653775</v>
       </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
       <c r="AB4">
         <v>0</v>
       </c>
@@ -975,27 +987,30 @@
         <v>0</v>
       </c>
       <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
         <v>0.01527061023527561</v>
       </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
       <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
         <v>0.04404486468704455</v>
       </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
       <c r="AH4">
         <v>0</v>
       </c>
       <c r="AI4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1004,105 +1019,108 @@
         <v>0</v>
       </c>
       <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>0.2018468388515487</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>0.1576799139124203</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.03017051202633867</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>0.02745151309955766</v>
       </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
       <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
         <v>0.07257446162377122</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.01219725538741158</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.1042779942570115</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>0.08833697778044143</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
       <c r="Q5">
-        <v>0.0111859814199641</v>
+        <v>0</v>
       </c>
       <c r="R5">
+        <v>0.01118598141996411</v>
+      </c>
+      <c r="S5">
         <v>0.002562095814218656</v>
       </c>
-      <c r="S5">
-        <v>0.09614564939801004</v>
-      </c>
       <c r="T5">
+        <v>0.09614564939801006</v>
+      </c>
+      <c r="U5">
         <v>0.03510761562416497</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.03117517748783877</v>
       </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
       <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
         <v>0.01152603274816807</v>
       </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
         <v>0.01395965429780642</v>
       </c>
-      <c r="AA5">
-        <v>0.01274228345489738</v>
-      </c>
       <c r="AB5">
+        <v>0.01274228345489739</v>
+      </c>
+      <c r="AC5">
         <v>0.001458025035188208</v>
       </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
-        <v>0.01648337763815551</v>
+        <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.01648337763815552</v>
       </c>
       <c r="AF5">
-        <v>0.06432696587295648</v>
+        <v>0</v>
       </c>
       <c r="AG5">
-        <v>0.005424328175744985</v>
+        <v>0.0643269658729565</v>
       </c>
       <c r="AH5">
-        <v>0.003367346094385243</v>
+        <v>0.005424328175744987</v>
       </c>
       <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+        <v>0.003367346094385244</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1111,65 +1129,65 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.009002186066033873</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1215374727435533</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.09441836616931558</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.2390927462211017</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
         <v>0.00633823729451445</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
         <v>0.007135777336426706</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>0.03824201638078636</v>
       </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
       <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0.1892393137944428</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>0.03686339018400757</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.002084555189856464</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.1189128552507224</v>
       </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
       <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
         <v>0.01596630464104868</v>
       </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
       <c r="X6">
         <v>0</v>
       </c>
@@ -1180,36 +1198,39 @@
         <v>0</v>
       </c>
       <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>0.02017688451585564</v>
       </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
       <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
         <v>0.009210732729780083</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.01689789248070143</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.0111138404915842</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.02313713440400859</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>0.04022927054682486</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
       <c r="AI6">
+        <v>0</v>
+      </c>
+      <c r="AJ6">
         <v>0.00040102355943529</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1218,105 +1239,108 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01105597293612124</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.179651932904419</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.0873557289955374</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.2049347844667968</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
         <v>0.001945940049247913</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
         <v>0.004670582106979246</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.01787770400979488</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.004266758808842426</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>0.2113233163289359</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
         <v>0.0465268436761272</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.01473030869303019</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.1005114194009967</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.002484472269736603</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.008534506294705342</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.01359657078303089</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>0.006313978291260418</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
         <v>0.008876855547620754</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.0002626516626315517</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.0001423186839373777</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.01394347130686009</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.0006712010810441108</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>0.01954737962597214</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>0.04077530207637178</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
       <c r="AI7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1325,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2091330816366072</v>
+        <v>0.0001974803668268953</v>
       </c>
       <c r="E8">
-        <v>0.02300727764740517</v>
+        <v>0.2092042437342392</v>
       </c>
       <c r="F8">
-        <v>0.2254873458051643</v>
+        <v>0.02301510637600889</v>
       </c>
       <c r="G8">
-        <v>0.01440345375716544</v>
+        <v>0.2255640727982895</v>
       </c>
       <c r="H8">
-        <v>0.0003906730294173694</v>
+        <v>0.01440835484681842</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.0003908059644463181</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1349,81 +1373,84 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.02432869633056709</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0243369747007321</v>
       </c>
       <c r="N8">
-        <v>0.1820352773185248</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01568578873013878</v>
+        <v>0.1820972187965332</v>
       </c>
       <c r="P8">
-        <v>0.003119569776767155</v>
+        <v>0.01569112616226723</v>
       </c>
       <c r="Q8">
-        <v>0.04129210838183563</v>
+        <v>0.003120631278502256</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.04130615892336213</v>
       </c>
       <c r="S8">
-        <v>0.1132469734404707</v>
+        <v>0</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>0.1132855081960313</v>
       </c>
       <c r="U8">
-        <v>0.02934990272632569</v>
+        <v>0</v>
       </c>
       <c r="V8">
-        <v>0.008492244872268653</v>
+        <v>0.02935988967160933</v>
       </c>
       <c r="W8">
-        <v>0.01905487826862645</v>
+        <v>0.008495134544022098</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>0.01906136210703742</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.01574389435801038</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.009240319431918553</v>
+        <v>0.0157492515618475</v>
       </c>
       <c r="AB8">
-        <v>0.002917098357251291</v>
+        <v>0.009243463652375786</v>
       </c>
       <c r="AC8">
-        <v>0.004509004364567549</v>
+        <v>0.00291809096366476</v>
       </c>
       <c r="AD8">
-        <v>0.009713944954113292</v>
+        <v>0.004510538651760679</v>
       </c>
       <c r="AE8">
-        <v>0.006235209006510589</v>
+        <v>0.009717250335996479</v>
       </c>
       <c r="AF8">
-        <v>0.04207568852332222</v>
+        <v>0.006237330672526342</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>0.04209000569510204</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0.000537569283021703</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1432,68 +1459,68 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.1441778060323411</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.004792267852362367</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.2155221490617393</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.08087172261795079</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>0.00208701136136044</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
       <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
         <v>0.01829023028443763</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>0.07844556439542802</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>0.2255273157589913</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>0.0030295472664907</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.02939510378246511</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.07831719767114605</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.03006758595020554</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>0.02557583594406679</v>
       </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
       <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
         <v>0.01194883997522139</v>
       </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
       <c r="Y9">
         <v>0</v>
       </c>
@@ -1501,36 +1528,39 @@
         <v>0</v>
       </c>
       <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.02799408286204262</v>
       </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
         <v>0.0008560347191670089</v>
       </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
       <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
         <v>0.01137209505578013</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>0.01172960940880366</v>
       </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
       <c r="AI9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1539,23 +1569,23 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.04255957830718306</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.1089607662415852</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.08929998025728755</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1923793839726014</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.004468071869742656</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
         <v>0</v>
       </c>
@@ -1563,81 +1593,84 @@
         <v>0</v>
       </c>
       <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
         <v>0.003506540373788997</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.009652983234621876</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.03003608789326653</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>0.2222320538377731</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
         <v>0.06149490940222233</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.006082392510967215</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.08792715898410557</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.004702697068945649</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.01506343930499287</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.01499650453391175</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.007783643032239868</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>0.0005581134790404264</v>
       </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
       <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
         <v>0.02929935406846917</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>0.003520454255389796</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
       <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
         <v>0.01794263452606872</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.008454185565193352</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.01047187537937294</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>0.02860719190122991</v>
       </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
       <c r="AI10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1646,23 +1679,23 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.116321071660717</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.01544082078067285</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.3067536239867224</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.1058933028759082</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.004480444893208098</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
         <v>0</v>
       </c>
@@ -1670,53 +1703,53 @@
         <v>0</v>
       </c>
       <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
         <v>0.01384117962320265</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>0.1176273089956122</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.06635277477464145</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.003078864159803522</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.02268799082026287</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.01878173835251191</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.07506587824471515</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.01126271999726156</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>0.03673579833551682</v>
       </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
       <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
         <v>0.01522975593001955</v>
       </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
         <v>0.001534007764861096</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
       <c r="AB11">
         <v>0</v>
       </c>
@@ -1724,21 +1757,24 @@
         <v>0</v>
       </c>
       <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>0.03394859844831373</v>
       </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
       <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
         <v>0.03496412035604919</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
       <c r="AH11">
         <v>0</v>
       </c>
       <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AJ11">
         <v>0</v>
       </c>
     </row>
@@ -1749,15 +1785,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AI11"/>
+  <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1861,10 +1897,13 @@
       <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -1873,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>0.04506554898033514</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>0.0920594269553158</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.2696001983462257</v>
-      </c>
-      <c r="G2">
-        <v>0.378307398548098</v>
       </c>
       <c r="H2">
         <v>0.378307398548098</v>
@@ -1891,22 +1930,22 @@
         <v>0.378307398548098</v>
       </c>
       <c r="J2">
-        <v>0.3900947535378714</v>
+        <v>0.378307398548098</v>
       </c>
       <c r="K2">
         <v>0.3900947535378714</v>
       </c>
       <c r="L2">
+        <v>0.3900947535378714</v>
+      </c>
+      <c r="M2">
         <v>0.4147628881449303</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>0.4614693135060174</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>0.4847916215215469</v>
-      </c>
-      <c r="O2">
-        <v>0.6795259923303615</v>
       </c>
       <c r="P2">
         <v>0.6795259923303615</v>
@@ -1915,22 +1954,22 @@
         <v>0.6795259923303615</v>
       </c>
       <c r="R2">
+        <v>0.6795259923303615</v>
+      </c>
+      <c r="S2">
         <v>0.716562101392435</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>0.7627798508008996</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>0.8573792449555745</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>0.8775165540426788</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>0.884685145206679</v>
-      </c>
-      <c r="W2">
-        <v>0.8903699931750413</v>
       </c>
       <c r="X2">
         <v>0.8903699931750413</v>
@@ -1942,7 +1981,7 @@
         <v>0.8903699931750413</v>
       </c>
       <c r="AA2">
-        <v>0.8986802326711651</v>
+        <v>0.8903699931750413</v>
       </c>
       <c r="AB2">
         <v>0.8986802326711651</v>
@@ -1951,27 +1990,30 @@
         <v>0.8986802326711651</v>
       </c>
       <c r="AD2">
-        <v>0.9341499283521528</v>
+        <v>0.8986802326711651</v>
       </c>
       <c r="AE2">
         <v>0.9341499283521528</v>
       </c>
       <c r="AF2">
+        <v>0.9341499283521528</v>
+      </c>
+      <c r="AG2">
         <v>0.9848965739451854</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>0.996903588608765</v>
-      </c>
-      <c r="AH2">
-        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1980,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1025561676325245</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0.1025561676325245</v>
       </c>
       <c r="F3">
+        <v>0.1025561676325245</v>
+      </c>
+      <c r="G3">
         <v>0.3311945565842522</v>
-      </c>
-      <c r="G3">
-        <v>0.440407815492138</v>
       </c>
       <c r="H3">
         <v>0.440407815492138</v>
@@ -1998,7 +2040,7 @@
         <v>0.440407815492138</v>
       </c>
       <c r="J3">
-        <v>0.4430833113865219</v>
+        <v>0.440407815492138</v>
       </c>
       <c r="K3">
         <v>0.4430833113865219</v>
@@ -2007,13 +2049,13 @@
         <v>0.4430833113865219</v>
       </c>
       <c r="M3">
-        <v>0.467619368506928</v>
+        <v>0.4430833113865219</v>
       </c>
       <c r="N3">
         <v>0.467619368506928</v>
       </c>
       <c r="O3">
-        <v>0.8517096319824782</v>
+        <v>0.467619368506928</v>
       </c>
       <c r="P3">
         <v>0.8517096319824782</v>
@@ -2025,10 +2067,10 @@
         <v>0.8517096319824782</v>
       </c>
       <c r="S3">
+        <v>0.8517096319824782</v>
+      </c>
+      <c r="T3">
         <v>0.8704819138972827</v>
-      </c>
-      <c r="T3">
-        <v>0.9860510125519251</v>
       </c>
       <c r="U3">
         <v>0.9860510125519251</v>
@@ -2064,10 +2106,10 @@
         <v>0.9860510125519251</v>
       </c>
       <c r="AF3">
+        <v>0.9860510125519251</v>
+      </c>
+      <c r="AG3">
         <v>0.9950257624131893</v>
-      </c>
-      <c r="AG3">
-        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2075,10 +2117,13 @@
       <c r="AI3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2087,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
         <v>0.276757297364939</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.2791162411767429</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.5836008928039232</v>
-      </c>
-      <c r="G4">
-        <v>0.5929284573575386</v>
       </c>
       <c r="H4">
         <v>0.5929284573575386</v>
       </c>
       <c r="I4">
-        <v>0.5956378599821414</v>
+        <v>0.5929284573575386</v>
       </c>
       <c r="J4">
         <v>0.5956378599821414</v>
@@ -2111,34 +2156,34 @@
         <v>0.5956378599821414</v>
       </c>
       <c r="L4">
-        <v>0.6462953332519459</v>
+        <v>0.5956378599821414</v>
       </c>
       <c r="M4">
         <v>0.6462953332519459</v>
       </c>
       <c r="N4">
+        <v>0.6462953332519459</v>
+      </c>
+      <c r="O4">
         <v>0.7791621944175708</v>
-      </c>
-      <c r="O4">
-        <v>0.7833065495408588</v>
       </c>
       <c r="P4">
         <v>0.7833065495408588</v>
       </c>
       <c r="Q4">
-        <v>0.8025479474752689</v>
+        <v>0.7833065495408588</v>
       </c>
       <c r="R4">
         <v>0.8025479474752689</v>
       </c>
       <c r="S4">
-        <v>0.9080843647646731</v>
+        <v>0.8025479474752689</v>
       </c>
       <c r="T4">
         <v>0.9080843647646731</v>
       </c>
       <c r="U4">
-        <v>0.9267815767311418</v>
+        <v>0.9080843647646731</v>
       </c>
       <c r="V4">
         <v>0.9267815767311418</v>
@@ -2153,7 +2198,7 @@
         <v>0.9267815767311418</v>
       </c>
       <c r="Z4">
-        <v>0.9406845250776795</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="AA4">
         <v>0.9406845250776795</v>
@@ -2165,13 +2210,13 @@
         <v>0.9406845250776795</v>
       </c>
       <c r="AD4">
-        <v>0.9559551353129552</v>
+        <v>0.9406845250776795</v>
       </c>
       <c r="AE4">
         <v>0.9559551353129552</v>
       </c>
       <c r="AF4">
-        <v>0.9999999999999998</v>
+        <v>0.9559551353129552</v>
       </c>
       <c r="AG4">
         <v>0.9999999999999998</v>
@@ -2182,10 +2227,13 @@
       <c r="AI4">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AJ4">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2194,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2018468388515487</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0.2018468388515487</v>
       </c>
       <c r="F5">
+        <v>0.2018468388515487</v>
+      </c>
+      <c r="G5">
         <v>0.3595267527639691</v>
-      </c>
-      <c r="G5">
-        <v>0.3896972647903078</v>
       </c>
       <c r="H5">
         <v>0.3896972647903078</v>
@@ -2212,46 +2260,46 @@
         <v>0.3896972647903078</v>
       </c>
       <c r="J5">
-        <v>0.4171487778898654</v>
+        <v>0.3896972647903078</v>
       </c>
       <c r="K5">
         <v>0.4171487778898654</v>
       </c>
       <c r="L5">
+        <v>0.4171487778898654</v>
+      </c>
+      <c r="M5">
         <v>0.4897232395136367</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>0.5019204949010483</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>0.6061984891580599</v>
-      </c>
-      <c r="O5">
-        <v>0.6945354669385013</v>
       </c>
       <c r="P5">
         <v>0.6945354669385013</v>
       </c>
       <c r="Q5">
+        <v>0.6945354669385013</v>
+      </c>
+      <c r="R5">
         <v>0.7057214483584654</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>0.708283544172684</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.8044291935706941</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.8395368091948591</v>
-      </c>
-      <c r="U5">
-        <v>0.8707119866826979</v>
       </c>
       <c r="V5">
         <v>0.8707119866826979</v>
       </c>
       <c r="W5">
-        <v>0.882238019430866</v>
+        <v>0.8707119866826979</v>
       </c>
       <c r="X5">
         <v>0.882238019430866</v>
@@ -2260,39 +2308,42 @@
         <v>0.882238019430866</v>
       </c>
       <c r="Z5">
+        <v>0.882238019430866</v>
+      </c>
+      <c r="AA5">
         <v>0.8961976737286724</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>0.9089399571835698</v>
-      </c>
-      <c r="AB5">
-        <v>0.910397982218758</v>
       </c>
       <c r="AC5">
         <v>0.910397982218758</v>
       </c>
       <c r="AD5">
-        <v>0.9268813598569136</v>
+        <v>0.910397982218758</v>
       </c>
       <c r="AE5">
         <v>0.9268813598569136</v>
       </c>
       <c r="AF5">
+        <v>0.9268813598569136</v>
+      </c>
+      <c r="AG5">
         <v>0.9912083257298701</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>0.9966326539056151</v>
-      </c>
-      <c r="AH5">
-        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AJ5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2301,22 +2352,22 @@
         <v>0</v>
       </c>
       <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.009002186066033873</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.1305396588095872</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2249580249789027</v>
-      </c>
-      <c r="G6">
-        <v>0.4640507712000044</v>
       </c>
       <c r="H6">
         <v>0.4640507712000044</v>
       </c>
       <c r="I6">
-        <v>0.4703890084945189</v>
+        <v>0.4640507712000044</v>
       </c>
       <c r="J6">
         <v>0.4703890084945189</v>
@@ -2325,16 +2376,16 @@
         <v>0.4703890084945189</v>
       </c>
       <c r="L6">
+        <v>0.4703890084945189</v>
+      </c>
+      <c r="M6">
         <v>0.4775247858309456</v>
-      </c>
-      <c r="M6">
-        <v>0.515766802211732</v>
       </c>
       <c r="N6">
         <v>0.515766802211732</v>
       </c>
       <c r="O6">
-        <v>0.7050061160061747</v>
+        <v>0.515766802211732</v>
       </c>
       <c r="P6">
         <v>0.7050061160061747</v>
@@ -2343,19 +2394,19 @@
         <v>0.7050061160061747</v>
       </c>
       <c r="R6">
+        <v>0.7050061160061747</v>
+      </c>
+      <c r="S6">
         <v>0.7418695061901822</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.7439540613800387</v>
-      </c>
-      <c r="T6">
-        <v>0.8628669166307611</v>
       </c>
       <c r="U6">
         <v>0.8628669166307611</v>
       </c>
       <c r="V6">
-        <v>0.8788332212718097</v>
+        <v>0.8628669166307611</v>
       </c>
       <c r="W6">
         <v>0.8788332212718097</v>
@@ -2370,36 +2421,39 @@
         <v>0.8788332212718097</v>
       </c>
       <c r="AA6">
-        <v>0.8990101057876654</v>
+        <v>0.8788332212718097</v>
       </c>
       <c r="AB6">
         <v>0.8990101057876654</v>
       </c>
       <c r="AC6">
+        <v>0.8990101057876654</v>
+      </c>
+      <c r="AD6">
         <v>0.9082208385174455</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>0.9251187309981469</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>0.936232571489731</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>0.9593697058937396</v>
-      </c>
-      <c r="AG6">
-        <v>0.9995989764405645</v>
       </c>
       <c r="AH6">
         <v>0.9995989764405645</v>
       </c>
       <c r="AI6">
+        <v>0.9995989764405645</v>
+      </c>
+      <c r="AJ6">
         <v>0.9999999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:36">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -2408,22 +2462,22 @@
         <v>0</v>
       </c>
       <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
         <v>0.01105597293612124</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.1907079058405402</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.2780636348360777</v>
-      </c>
-      <c r="G7">
-        <v>0.4829984193028745</v>
       </c>
       <c r="H7">
         <v>0.4829984193028745</v>
       </c>
       <c r="I7">
-        <v>0.4849443593521224</v>
+        <v>0.4829984193028745</v>
       </c>
       <c r="J7">
         <v>0.4849443593521224</v>
@@ -2432,16 +2486,16 @@
         <v>0.4849443593521224</v>
       </c>
       <c r="L7">
+        <v>0.4849443593521224</v>
+      </c>
+      <c r="M7">
         <v>0.4896149414591016</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>0.5074926454688965</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>0.5117594042777389</v>
-      </c>
-      <c r="O7">
-        <v>0.7230827206066748</v>
       </c>
       <c r="P7">
         <v>0.7230827206066748</v>
@@ -2450,25 +2504,25 @@
         <v>0.7230827206066748</v>
       </c>
       <c r="R7">
+        <v>0.7230827206066748</v>
+      </c>
+      <c r="S7">
         <v>0.769609564282802</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.7843398729758322</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>0.8848512923768289</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>0.8873357646465655</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>0.8958702709412708</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>0.9094668417243017</v>
-      </c>
-      <c r="X7">
-        <v>0.9157808200155622</v>
       </c>
       <c r="Y7">
         <v>0.9157808200155622</v>
@@ -2477,25 +2531,25 @@
         <v>0.9157808200155622</v>
       </c>
       <c r="AA7">
+        <v>0.9157808200155622</v>
+      </c>
+      <c r="AB7">
         <v>0.9246576755631829</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>0.9249203272258144</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>0.9250626459097517</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>0.9390061172166119</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>0.939677318297656</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>0.9592246979236281</v>
-      </c>
-      <c r="AG7">
-        <v>0.9999999999999999</v>
       </c>
       <c r="AH7">
         <v>0.9999999999999999</v>
@@ -2503,10 +2557,13 @@
       <c r="AI7">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2515,105 +2572,108 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2091330816366072</v>
+        <v>0.0001974803668268953</v>
       </c>
       <c r="E8">
-        <v>0.2321403592840123</v>
+        <v>0.2094017241010661</v>
       </c>
       <c r="F8">
-        <v>0.4576277050891766</v>
+        <v>0.232416830477075</v>
       </c>
       <c r="G8">
-        <v>0.4720311588463421</v>
+        <v>0.4579809032753646</v>
       </c>
       <c r="H8">
-        <v>0.4724218318757594</v>
+        <v>0.472389258122183</v>
       </c>
       <c r="I8">
-        <v>0.4724218318757594</v>
+        <v>0.4727800640866293</v>
       </c>
       <c r="J8">
-        <v>0.4724218318757594</v>
+        <v>0.4727800640866293</v>
       </c>
       <c r="K8">
-        <v>0.4724218318757594</v>
+        <v>0.4727800640866293</v>
       </c>
       <c r="L8">
-        <v>0.4967505282063265</v>
+        <v>0.4727800640866293</v>
       </c>
       <c r="M8">
-        <v>0.4967505282063265</v>
+        <v>0.4971170387873614</v>
       </c>
       <c r="N8">
-        <v>0.6787858055248513</v>
+        <v>0.4971170387873614</v>
       </c>
       <c r="O8">
-        <v>0.6944715942549902</v>
+        <v>0.6792142575838946</v>
       </c>
       <c r="P8">
-        <v>0.6975911640317574</v>
+        <v>0.6949053837461618</v>
       </c>
       <c r="Q8">
-        <v>0.738883272413593</v>
+        <v>0.6980260150246641</v>
       </c>
       <c r="R8">
-        <v>0.738883272413593</v>
+        <v>0.7393321739480262</v>
       </c>
       <c r="S8">
-        <v>0.8521302458540636</v>
+        <v>0.7393321739480262</v>
       </c>
       <c r="T8">
-        <v>0.8521302458540636</v>
+        <v>0.8526176821440575</v>
       </c>
       <c r="U8">
-        <v>0.8814801485803893</v>
+        <v>0.8526176821440575</v>
       </c>
       <c r="V8">
-        <v>0.8899723934526579</v>
+        <v>0.8819775718156668</v>
       </c>
       <c r="W8">
-        <v>0.9090272717212843</v>
+        <v>0.8904727063596889</v>
       </c>
       <c r="X8">
-        <v>0.9090272717212843</v>
+        <v>0.9095340684667264</v>
       </c>
       <c r="Y8">
-        <v>0.9090272717212843</v>
+        <v>0.9095340684667264</v>
       </c>
       <c r="Z8">
-        <v>0.9247711660792947</v>
+        <v>0.9095340684667264</v>
       </c>
       <c r="AA8">
-        <v>0.9340114855112132</v>
+        <v>0.9252833200285738</v>
       </c>
       <c r="AB8">
-        <v>0.9369285838684644</v>
+        <v>0.9345267836809497</v>
       </c>
       <c r="AC8">
-        <v>0.941437588233032</v>
+        <v>0.9374448746446145</v>
       </c>
       <c r="AD8">
-        <v>0.9511515331871453</v>
+        <v>0.9419554132963751</v>
       </c>
       <c r="AE8">
-        <v>0.9573867421936559</v>
+        <v>0.9516726636323716</v>
       </c>
       <c r="AF8">
-        <v>0.9994624307169782</v>
+        <v>0.9579099943048979</v>
       </c>
       <c r="AG8">
-        <v>0.9994624307169782</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AH8">
-        <v>0.9994624307169782</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="AI8">
         <v>0.9999999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8">
+        <v>0.9999999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -2622,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.1441778060323411</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>0.1489700738847035</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.3644922229464428</v>
-      </c>
-      <c r="G9">
-        <v>0.4453639455643936</v>
       </c>
       <c r="H9">
         <v>0.4453639455643936</v>
@@ -2640,46 +2700,46 @@
         <v>0.4453639455643936</v>
       </c>
       <c r="J9">
-        <v>0.447450956925754</v>
+        <v>0.4453639455643936</v>
       </c>
       <c r="K9">
         <v>0.447450956925754</v>
       </c>
       <c r="L9">
-        <v>0.4657411872101916</v>
+        <v>0.447450956925754</v>
       </c>
       <c r="M9">
         <v>0.4657411872101916</v>
       </c>
       <c r="N9">
+        <v>0.4657411872101916</v>
+      </c>
+      <c r="O9">
         <v>0.5441867516056196</v>
-      </c>
-      <c r="O9">
-        <v>0.7697140673646109</v>
       </c>
       <c r="P9">
         <v>0.7697140673646109</v>
       </c>
       <c r="Q9">
+        <v>0.7697140673646109</v>
+      </c>
+      <c r="R9">
         <v>0.7727436146311016</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.8021387184135668</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.8804559160847129</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>0.9105235020349184</v>
-      </c>
-      <c r="U9">
-        <v>0.9360993379789851</v>
       </c>
       <c r="V9">
         <v>0.9360993379789851</v>
       </c>
       <c r="W9">
-        <v>0.9480481779542065</v>
+        <v>0.9360993379789851</v>
       </c>
       <c r="X9">
         <v>0.9480481779542065</v>
@@ -2691,7 +2751,7 @@
         <v>0.9480481779542065</v>
       </c>
       <c r="AA9">
-        <v>0.9760422608162491</v>
+        <v>0.9480481779542065</v>
       </c>
       <c r="AB9">
         <v>0.9760422608162491</v>
@@ -2700,16 +2760,16 @@
         <v>0.9760422608162491</v>
       </c>
       <c r="AD9">
-        <v>0.9768982955354161</v>
+        <v>0.9760422608162491</v>
       </c>
       <c r="AE9">
         <v>0.9768982955354161</v>
       </c>
       <c r="AF9">
+        <v>0.9768982955354161</v>
+      </c>
+      <c r="AG9">
         <v>0.9882703905911961</v>
-      </c>
-      <c r="AG9">
-        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
         <v>0.9999999999999998</v>
@@ -2717,10 +2777,13 @@
       <c r="AI9">
         <v>0.9999999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9">
+        <v>0.9999999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2729,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
         <v>0.04255957830718306</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.1515203445487683</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.2408203248060558</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.4331997087786572</v>
-      </c>
-      <c r="H10">
-        <v>0.4376677806483998</v>
       </c>
       <c r="I10">
         <v>0.4376677806483998</v>
@@ -2753,16 +2816,16 @@
         <v>0.4376677806483998</v>
       </c>
       <c r="L10">
+        <v>0.4376677806483998</v>
+      </c>
+      <c r="M10">
         <v>0.4411743210221888</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>0.4508273042568107</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>0.4808633921500772</v>
-      </c>
-      <c r="O10">
-        <v>0.7030954459878503</v>
       </c>
       <c r="P10">
         <v>0.7030954459878503</v>
@@ -2771,52 +2834,52 @@
         <v>0.7030954459878503</v>
       </c>
       <c r="R10">
+        <v>0.7030954459878503</v>
+      </c>
+      <c r="S10">
         <v>0.7645903553900727</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.7706727479010399</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>0.8585999068851454</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>0.8633026039540911</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>0.878366043259084</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>0.8933625477929957</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>0.9011461908252356</v>
-      </c>
-      <c r="Y10">
-        <v>0.9017043043042761</v>
       </c>
       <c r="Z10">
         <v>0.9017043043042761</v>
       </c>
       <c r="AA10">
+        <v>0.9017043043042761</v>
+      </c>
+      <c r="AB10">
         <v>0.9310036583727452</v>
-      </c>
-      <c r="AB10">
-        <v>0.9345241126281351</v>
       </c>
       <c r="AC10">
         <v>0.9345241126281351</v>
       </c>
       <c r="AD10">
+        <v>0.9345241126281351</v>
+      </c>
+      <c r="AE10">
         <v>0.9524667471542038</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>0.9609209327193972</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>0.97139280809877</v>
-      </c>
-      <c r="AG10">
-        <v>1</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -2824,10 +2887,13 @@
       <c r="AI10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -2836,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.116321071660717</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.1317618924413898</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.4385155164281122</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.5444088193040204</v>
-      </c>
-      <c r="H11">
-        <v>0.5488892641972285</v>
       </c>
       <c r="I11">
         <v>0.5488892641972285</v>
@@ -2860,40 +2926,40 @@
         <v>0.5488892641972285</v>
       </c>
       <c r="L11">
-        <v>0.5627304438204311</v>
+        <v>0.5488892641972285</v>
       </c>
       <c r="M11">
         <v>0.5627304438204311</v>
       </c>
       <c r="N11">
+        <v>0.5627304438204311</v>
+      </c>
+      <c r="O11">
         <v>0.6803577528160434</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>0.7467105275906848</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.7497893917504883</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.7724773825707512</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.7912591209232631</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>0.8663249991679782</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>0.8775877191652398</v>
-      </c>
-      <c r="U11">
-        <v>0.9143235175007567</v>
       </c>
       <c r="V11">
         <v>0.9143235175007567</v>
       </c>
       <c r="W11">
-        <v>0.9295532734307762</v>
+        <v>0.9143235175007567</v>
       </c>
       <c r="X11">
         <v>0.9295532734307762</v>
@@ -2902,7 +2968,7 @@
         <v>0.9295532734307762</v>
       </c>
       <c r="Z11">
-        <v>0.9310872811956373</v>
+        <v>0.9295532734307762</v>
       </c>
       <c r="AA11">
         <v>0.9310872811956373</v>
@@ -2914,13 +2980,13 @@
         <v>0.9310872811956373</v>
       </c>
       <c r="AD11">
-        <v>0.9650358796439511</v>
+        <v>0.9310872811956373</v>
       </c>
       <c r="AE11">
         <v>0.9650358796439511</v>
       </c>
       <c r="AF11">
-        <v>1</v>
+        <v>0.9650358796439511</v>
       </c>
       <c r="AG11">
         <v>1</v>
@@ -2929,6 +2995,9 @@
         <v>1</v>
       </c>
       <c r="AI11">
+        <v>1</v>
+      </c>
+      <c r="AJ11">
         <v>1</v>
       </c>
     </row>
@@ -2947,57 +3016,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3015,30 +3084,30 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3056,30 +3125,30 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3097,30 +3166,30 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3138,30 +3207,30 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3179,30 +3248,30 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3220,36 +3289,36 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6787858055248513</v>
+        <v>0.6792142575838946</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3261,30 +3330,30 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3302,30 +3371,30 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3343,30 +3412,30 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3384,16 +3453,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3411,57 +3480,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3479,30 +3548,30 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3520,30 +3589,30 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3561,30 +3630,30 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3602,30 +3671,30 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -3643,30 +3712,30 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -3684,36 +3753,36 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.738883272413593</v>
+        <v>0.7393321739480262</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3725,30 +3794,30 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3766,30 +3835,30 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3807,30 +3876,30 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3848,16 +3917,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3875,57 +3944,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3943,30 +4012,30 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3984,30 +4053,30 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4025,30 +4094,30 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4066,30 +4135,30 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4107,30 +4176,30 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4148,36 +4217,36 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8521302458540636</v>
+        <v>0.8526176821440575</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4189,30 +4258,30 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4230,30 +4299,30 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4271,30 +4340,30 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4312,16 +4381,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -4339,57 +4408,57 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2">
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4407,30 +4476,30 @@
         <v>700</v>
       </c>
       <c r="J2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3">
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4448,30 +4517,30 @@
         <v>700</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4489,30 +4558,30 @@
         <v>700</v>
       </c>
       <c r="J4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5">
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4530,30 +4599,30 @@
         <v>700</v>
       </c>
       <c r="J5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B6">
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -4571,30 +4640,30 @@
         <v>700</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -4612,36 +4681,36 @@
         <v>700</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B8">
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9090272717212843</v>
+        <v>0.9095340684667264</v>
       </c>
       <c r="G8">
         <v>21</v>
@@ -4653,30 +4722,30 @@
         <v>700</v>
       </c>
       <c r="J8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B9">
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4694,30 +4763,30 @@
         <v>700</v>
       </c>
       <c r="J9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10">
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4735,30 +4804,30 @@
         <v>700</v>
       </c>
       <c r="J10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B11">
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4776,16 +4845,16 @@
         <v>700</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/Person_B_and_trucks/on_trucks/Processed_Standalone/56_11R22.xlsx
+++ b/Person_B_and_trucks/on_trucks/Processed_Standalone/56_11R22.xlsx
@@ -21,9 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="62">
   <si>
-    <t>Signal_Value_88</t>
-  </si>
-  <si>
     <t>Signal_Value_89</t>
   </si>
   <si>
@@ -124,6 +121,9 @@
   </si>
   <si>
     <t>Signal_Value_122</t>
+  </si>
+  <si>
+    <t>Signal_Value_123</t>
   </si>
   <si>
     <t>Segment_ID</t>
@@ -689,67 +689,67 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.04506554898033514</v>
       </c>
       <c r="E2">
-        <v>0.04506554898033514</v>
+        <v>0.04699387797498067</v>
       </c>
       <c r="F2">
-        <v>0.04699387797498067</v>
+        <v>0.1775407713909099</v>
       </c>
       <c r="G2">
-        <v>0.1775407713909099</v>
+        <v>0.1087072002018723</v>
       </c>
       <c r="H2">
-        <v>0.1087072002018723</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.01178735498977335</v>
       </c>
       <c r="K2">
-        <v>0.01178735498977335</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.02466813460705891</v>
       </c>
       <c r="M2">
-        <v>0.02466813460705891</v>
+        <v>0.0467064253610871</v>
       </c>
       <c r="N2">
-        <v>0.0467064253610871</v>
+        <v>0.02332230801552953</v>
       </c>
       <c r="O2">
-        <v>0.02332230801552953</v>
+        <v>0.1947343708088146</v>
       </c>
       <c r="P2">
-        <v>0.1947343708088146</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.03703610906207358</v>
       </c>
       <c r="S2">
-        <v>0.03703610906207358</v>
+        <v>0.04621774940846457</v>
       </c>
       <c r="T2">
-        <v>0.04621774940846457</v>
+        <v>0.09459939415467487</v>
       </c>
       <c r="U2">
-        <v>0.09459939415467487</v>
+        <v>0.02013730908710427</v>
       </c>
       <c r="V2">
-        <v>0.02013730908710427</v>
+        <v>0.007168591164000124</v>
       </c>
       <c r="W2">
-        <v>0.007168591164000124</v>
+        <v>0.005684847968362348</v>
       </c>
       <c r="X2">
-        <v>0.005684847968362348</v>
+        <v>0</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -758,31 +758,31 @@
         <v>0</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>0.008310239496123903</v>
       </c>
       <c r="AB2">
-        <v>0.008310239496123903</v>
+        <v>0</v>
       </c>
       <c r="AC2">
         <v>0</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.03546969568098763</v>
       </c>
       <c r="AE2">
-        <v>0.03546969568098763</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>0.05074664559303249</v>
       </c>
       <c r="AG2">
-        <v>0.05074664559303249</v>
+        <v>0.01200701466357964</v>
       </c>
       <c r="AH2">
-        <v>0.01200701466357964</v>
+        <v>0.003096411391235199</v>
       </c>
       <c r="AI2">
-        <v>0.003096411391235199</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
         <v>0</v>
@@ -799,43 +799,43 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1025561676325245</v>
       </c>
       <c r="E3">
-        <v>0.1025561676325245</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>0.2286383889517278</v>
       </c>
       <c r="G3">
-        <v>0.2286383889517278</v>
+        <v>0.1092132589078858</v>
       </c>
       <c r="H3">
-        <v>0.1092132589078858</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.002675495894383851</v>
       </c>
       <c r="K3">
-        <v>0.002675495894383851</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.02453605712040613</v>
       </c>
       <c r="N3">
-        <v>0.02453605712040613</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.3840902634755502</v>
       </c>
       <c r="P3">
-        <v>0.3840902634755502</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -844,13 +844,13 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.01877228191480454</v>
       </c>
       <c r="T3">
-        <v>0.01877228191480454</v>
+        <v>0.1155690986546423</v>
       </c>
       <c r="U3">
-        <v>0.1155690986546423</v>
+        <v>0</v>
       </c>
       <c r="V3">
         <v>0</v>
@@ -883,13 +883,13 @@
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>0.008974749861264187</v>
       </c>
       <c r="AG3">
-        <v>0.008974749861264187</v>
+        <v>0.00497423758681073</v>
       </c>
       <c r="AH3">
-        <v>0.00497423758681073</v>
+        <v>0</v>
       </c>
       <c r="AI3">
         <v>0</v>
@@ -909,61 +909,61 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.276757297364939</v>
       </c>
       <c r="E4">
-        <v>0.276757297364939</v>
+        <v>0.002358943811803895</v>
       </c>
       <c r="F4">
-        <v>0.002358943811803895</v>
+        <v>0.3044846516271803</v>
       </c>
       <c r="G4">
-        <v>0.3044846516271803</v>
+        <v>0.009327564553615442</v>
       </c>
       <c r="H4">
-        <v>0.009327564553615442</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002709402624602713</v>
       </c>
       <c r="J4">
-        <v>0.002709402624602713</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.05065747326980447</v>
       </c>
       <c r="M4">
-        <v>0.05065747326980447</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.132866861165625</v>
       </c>
       <c r="O4">
-        <v>0.132866861165625</v>
+        <v>0.004144355123287933</v>
       </c>
       <c r="P4">
-        <v>0.004144355123287933</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>0.01924139793441013</v>
       </c>
       <c r="R4">
-        <v>0.01924139793441013</v>
+        <v>0</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.1055364172894042</v>
       </c>
       <c r="T4">
-        <v>0.1055364172894042</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.01869721196646871</v>
       </c>
       <c r="V4">
-        <v>0.01869721196646871</v>
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>0.01390294834653775</v>
       </c>
       <c r="AA4">
-        <v>0.01390294834653775</v>
+        <v>0</v>
       </c>
       <c r="AB4">
         <v>0</v>
@@ -987,16 +987,16 @@
         <v>0</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>0.01527061023527561</v>
       </c>
       <c r="AE4">
-        <v>0.01527061023527561</v>
+        <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>0.04404486468704455</v>
       </c>
       <c r="AG4">
-        <v>0.04404486468704455</v>
+        <v>0</v>
       </c>
       <c r="AH4">
         <v>0</v>
@@ -1019,100 +1019,100 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2018468388515487</v>
       </c>
       <c r="E5">
-        <v>0.2018468388515487</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.1576799139124203</v>
       </c>
       <c r="G5">
-        <v>0.1576799139124203</v>
+        <v>0.03017051202633867</v>
       </c>
       <c r="H5">
-        <v>0.03017051202633867</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.02745151309955766</v>
       </c>
       <c r="K5">
-        <v>0.02745151309955766</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.07257446162377122</v>
       </c>
       <c r="M5">
-        <v>0.07257446162377122</v>
+        <v>0.01219725538741158</v>
       </c>
       <c r="N5">
-        <v>0.01219725538741158</v>
+        <v>0.1042779942570115</v>
       </c>
       <c r="O5">
-        <v>0.1042779942570115</v>
+        <v>0.08833697778044143</v>
       </c>
       <c r="P5">
-        <v>0.08833697778044143</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.0111859814199641</v>
       </c>
       <c r="R5">
-        <v>0.01118598141996411</v>
+        <v>0.002562095814218656</v>
       </c>
       <c r="S5">
-        <v>0.002562095814218656</v>
+        <v>0.09614564939801004</v>
       </c>
       <c r="T5">
-        <v>0.09614564939801006</v>
+        <v>0.03510761562416497</v>
       </c>
       <c r="U5">
-        <v>0.03510761562416497</v>
+        <v>0.03117517748783877</v>
       </c>
       <c r="V5">
-        <v>0.03117517748783877</v>
+        <v>0</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>0.01152603274816807</v>
       </c>
       <c r="X5">
-        <v>0.01152603274816807</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>0.01395965429780642</v>
       </c>
       <c r="AA5">
-        <v>0.01395965429780642</v>
+        <v>0.01274228345489738</v>
       </c>
       <c r="AB5">
-        <v>0.01274228345489739</v>
+        <v>0.001458025035188208</v>
       </c>
       <c r="AC5">
-        <v>0.001458025035188208</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>0.01648337763815551</v>
       </c>
       <c r="AE5">
-        <v>0.01648337763815552</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.06432696587295648</v>
       </c>
       <c r="AG5">
-        <v>0.0643269658729565</v>
+        <v>0.005424328175744985</v>
       </c>
       <c r="AH5">
-        <v>0.005424328175744987</v>
+        <v>0.003367346094385243</v>
       </c>
       <c r="AI5">
-        <v>0.003367346094385244</v>
+        <v>0</v>
       </c>
       <c r="AJ5">
         <v>0</v>
@@ -1132,61 +1132,61 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.009002186066033873</v>
+        <v>0.1226194417478845</v>
       </c>
       <c r="F6">
-        <v>0.1215374727435533</v>
+        <v>0.09525891142115203</v>
       </c>
       <c r="G6">
-        <v>0.09441836616931558</v>
+        <v>0.2412212333019341</v>
       </c>
       <c r="H6">
-        <v>0.2390927462211017</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.00639466249523613</v>
       </c>
       <c r="J6">
-        <v>0.00633823729451445</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.007199302516978335</v>
       </c>
       <c r="M6">
-        <v>0.007135777336426706</v>
+        <v>0.03858246015876785</v>
       </c>
       <c r="N6">
-        <v>0.03824201638078636</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.1909239882187541</v>
       </c>
       <c r="P6">
-        <v>0.1892393137944428</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.03719156095038365</v>
       </c>
       <c r="S6">
-        <v>0.03686339018400757</v>
+        <v>0.002103112627758778</v>
       </c>
       <c r="T6">
-        <v>0.002084555189856464</v>
+        <v>0.1199714589940245</v>
       </c>
       <c r="U6">
-        <v>0.1189128552507224</v>
+        <v>0</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>0.01610844225791171</v>
       </c>
       <c r="W6">
-        <v>0.01596630464104868</v>
+        <v>0</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1198,34 +1198,34 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0</v>
+        <v>0.02035650618444331</v>
       </c>
       <c r="AB6">
-        <v>0.02017688451585564</v>
+        <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>0.009292729887494799</v>
       </c>
       <c r="AD6">
-        <v>0.009210732729780083</v>
+        <v>0.01704832341767852</v>
       </c>
       <c r="AE6">
-        <v>0.01689789248070143</v>
+        <v>0.01121277977886351</v>
       </c>
       <c r="AF6">
-        <v>0.0111138404915842</v>
+        <v>0.0233431092503591</v>
       </c>
       <c r="AG6">
-        <v>0.02313713440400859</v>
+        <v>0.04058740555503226</v>
       </c>
       <c r="AH6">
-        <v>0.04022927054682486</v>
+        <v>0</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.00040459361113639</v>
       </c>
       <c r="AJ6">
-        <v>0.00040102355943529</v>
+        <v>0.0001799776242064473</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -1242,100 +1242,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01105597293612124</v>
+        <v>0.1813285737966334</v>
       </c>
       <c r="F7">
-        <v>0.179651932904419</v>
+        <v>0.08817099541118481</v>
       </c>
       <c r="G7">
-        <v>0.0873557289955374</v>
+        <v>0.2068473830919225</v>
       </c>
       <c r="H7">
-        <v>0.2049347844667968</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.001964100959668523</v>
       </c>
       <c r="J7">
-        <v>0.001945940049247913</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.004714171334350225</v>
       </c>
       <c r="M7">
-        <v>0.004670582106979246</v>
+        <v>0.01804455158620072</v>
       </c>
       <c r="N7">
-        <v>0.01787770400979488</v>
+        <v>0.004306579267105612</v>
       </c>
       <c r="O7">
-        <v>0.004266758808842426</v>
+        <v>0.2132955373226502</v>
       </c>
       <c r="P7">
-        <v>0.2113233163289359</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.0469610656042295</v>
       </c>
       <c r="S7">
-        <v>0.0465268436761272</v>
+        <v>0.0148677825153843</v>
       </c>
       <c r="T7">
-        <v>0.01473030869303019</v>
+        <v>0.1014494641699994</v>
       </c>
       <c r="U7">
-        <v>0.1005114194009967</v>
+        <v>0.002507659149697584</v>
       </c>
       <c r="V7">
-        <v>0.002484472269736603</v>
+        <v>0.008614156438275894</v>
       </c>
       <c r="W7">
-        <v>0.008534506294705342</v>
+        <v>0.01372346374877953</v>
       </c>
       <c r="X7">
-        <v>0.01359657078303089</v>
+        <v>0.006372904872369421</v>
       </c>
       <c r="Y7">
-        <v>0.006313978291260418</v>
+        <v>0</v>
       </c>
       <c r="Z7">
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>0.008959700740348738</v>
       </c>
       <c r="AB7">
-        <v>0.008876855547620754</v>
+        <v>0.0002651029166250752</v>
       </c>
       <c r="AC7">
-        <v>0.0002626516626315517</v>
+        <v>0.0001436469041316047</v>
       </c>
       <c r="AD7">
-        <v>0.0001423186839373777</v>
+        <v>0.01407360179749577</v>
       </c>
       <c r="AE7">
-        <v>0.01394347130686009</v>
+        <v>0.0006774652116948826</v>
       </c>
       <c r="AF7">
-        <v>0.0006712010810441108</v>
+        <v>0.01972980981465249</v>
       </c>
       <c r="AG7">
-        <v>0.01954737962597214</v>
+        <v>0.04115584648660093</v>
       </c>
       <c r="AH7">
-        <v>0.04077530207637178</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>0.001826436859998723</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -1349,22 +1349,22 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0001974803668268953</v>
+        <v>0.2091330816366072</v>
       </c>
       <c r="E8">
-        <v>0.2092042437342392</v>
+        <v>0.02300727764740517</v>
       </c>
       <c r="F8">
-        <v>0.02301510637600889</v>
+        <v>0.2254873458051643</v>
       </c>
       <c r="G8">
-        <v>0.2255640727982895</v>
+        <v>0.01440345375716544</v>
       </c>
       <c r="H8">
-        <v>0.01440835484681842</v>
+        <v>0.0003906730294173694</v>
       </c>
       <c r="I8">
-        <v>0.0003908059644463181</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -1373,76 +1373,76 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.02432869633056709</v>
       </c>
       <c r="M8">
-        <v>0.0243369747007321</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1820352773185248</v>
       </c>
       <c r="O8">
-        <v>0.1820972187965332</v>
+        <v>0.01568578873013878</v>
       </c>
       <c r="P8">
-        <v>0.01569112616226723</v>
+        <v>0.003119569776767155</v>
       </c>
       <c r="Q8">
-        <v>0.003120631278502256</v>
+        <v>0.04129210838183563</v>
       </c>
       <c r="R8">
-        <v>0.04130615892336213</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.1132469734404707</v>
       </c>
       <c r="T8">
-        <v>0.1132855081960313</v>
+        <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>0.02934990272632569</v>
       </c>
       <c r="V8">
-        <v>0.02935988967160933</v>
+        <v>0.008492244872268653</v>
       </c>
       <c r="W8">
-        <v>0.008495134544022098</v>
+        <v>0.01905487826862645</v>
       </c>
       <c r="X8">
-        <v>0.01906136210703742</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>0.01574389435801038</v>
       </c>
       <c r="AA8">
-        <v>0.0157492515618475</v>
+        <v>0.009240319431918553</v>
       </c>
       <c r="AB8">
-        <v>0.009243463652375786</v>
+        <v>0.002917098357251291</v>
       </c>
       <c r="AC8">
-        <v>0.00291809096366476</v>
+        <v>0.004509004364567549</v>
       </c>
       <c r="AD8">
-        <v>0.004510538651760679</v>
+        <v>0.009713944954113292</v>
       </c>
       <c r="AE8">
-        <v>0.009717250335996479</v>
+        <v>0.006235209006510589</v>
       </c>
       <c r="AF8">
-        <v>0.006237330672526342</v>
+        <v>0.04207568852332222</v>
       </c>
       <c r="AG8">
-        <v>0.04209000569510204</v>
+        <v>0</v>
       </c>
       <c r="AH8">
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>0.000537569283021703</v>
       </c>
       <c r="AJ8">
         <v>0</v>
@@ -1459,67 +1459,67 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1441778060323411</v>
       </c>
       <c r="E9">
-        <v>0.1441778060323411</v>
+        <v>0.004792267852362367</v>
       </c>
       <c r="F9">
-        <v>0.004792267852362367</v>
+        <v>0.2155221490617393</v>
       </c>
       <c r="G9">
-        <v>0.2155221490617393</v>
+        <v>0.08087172261795079</v>
       </c>
       <c r="H9">
-        <v>0.08087172261795079</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.00208701136136044</v>
       </c>
       <c r="K9">
-        <v>0.00208701136136044</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.01829023028443763</v>
       </c>
       <c r="M9">
-        <v>0.01829023028443763</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.07844556439542802</v>
       </c>
       <c r="O9">
-        <v>0.07844556439542802</v>
+        <v>0.2255273157589913</v>
       </c>
       <c r="P9">
-        <v>0.2255273157589913</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>0.0030295472664907</v>
       </c>
       <c r="R9">
-        <v>0.0030295472664907</v>
+        <v>0.02939510378246511</v>
       </c>
       <c r="S9">
-        <v>0.02939510378246511</v>
+        <v>0.07831719767114605</v>
       </c>
       <c r="T9">
-        <v>0.07831719767114605</v>
+        <v>0.03006758595020554</v>
       </c>
       <c r="U9">
-        <v>0.03006758595020554</v>
+        <v>0.02557583594406679</v>
       </c>
       <c r="V9">
-        <v>0.02557583594406679</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>0.01194883997522139</v>
       </c>
       <c r="X9">
-        <v>0.01194883997522139</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1528,28 +1528,28 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>0.02799408286204262</v>
       </c>
       <c r="AB9">
-        <v>0.02799408286204262</v>
+        <v>0</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>0.0008560347191670089</v>
       </c>
       <c r="AE9">
-        <v>0.0008560347191670089</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>0.01137209505578013</v>
       </c>
       <c r="AG9">
-        <v>0.01137209505578013</v>
+        <v>0.01172960940880366</v>
       </c>
       <c r="AH9">
-        <v>0.01172960940880366</v>
+        <v>0</v>
       </c>
       <c r="AI9">
         <v>0</v>
@@ -1569,22 +1569,22 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.04255957830718306</v>
       </c>
       <c r="E10">
-        <v>0.04255957830718306</v>
+        <v>0.1089607662415852</v>
       </c>
       <c r="F10">
-        <v>0.1089607662415852</v>
+        <v>0.08929998025728755</v>
       </c>
       <c r="G10">
-        <v>0.08929998025728755</v>
+        <v>0.1923793839726014</v>
       </c>
       <c r="H10">
-        <v>0.1923793839726014</v>
+        <v>0.004468071869742656</v>
       </c>
       <c r="I10">
-        <v>0.004468071869742656</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1593,73 +1593,73 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.003506540373788997</v>
       </c>
       <c r="M10">
-        <v>0.003506540373788997</v>
+        <v>0.009652983234621876</v>
       </c>
       <c r="N10">
-        <v>0.009652983234621876</v>
+        <v>0.03003608789326653</v>
       </c>
       <c r="O10">
-        <v>0.03003608789326653</v>
+        <v>0.2222320538377731</v>
       </c>
       <c r="P10">
-        <v>0.2222320538377731</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.06149490940222233</v>
       </c>
       <c r="S10">
-        <v>0.06149490940222233</v>
+        <v>0.006082392510967215</v>
       </c>
       <c r="T10">
-        <v>0.006082392510967215</v>
+        <v>0.08792715898410557</v>
       </c>
       <c r="U10">
-        <v>0.08792715898410557</v>
+        <v>0.004702697068945649</v>
       </c>
       <c r="V10">
-        <v>0.004702697068945649</v>
+        <v>0.01506343930499287</v>
       </c>
       <c r="W10">
-        <v>0.01506343930499287</v>
+        <v>0.01499650453391175</v>
       </c>
       <c r="X10">
-        <v>0.01499650453391175</v>
+        <v>0.007783643032239868</v>
       </c>
       <c r="Y10">
-        <v>0.007783643032239868</v>
+        <v>0.0005581134790404264</v>
       </c>
       <c r="Z10">
-        <v>0.0005581134790404264</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>0.02929935406846917</v>
       </c>
       <c r="AB10">
-        <v>0.02929935406846917</v>
+        <v>0.003520454255389796</v>
       </c>
       <c r="AC10">
-        <v>0.003520454255389796</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>0.01794263452606872</v>
       </c>
       <c r="AE10">
-        <v>0.01794263452606872</v>
+        <v>0.008454185565193352</v>
       </c>
       <c r="AF10">
-        <v>0.008454185565193352</v>
+        <v>0.01047187537937294</v>
       </c>
       <c r="AG10">
-        <v>0.01047187537937294</v>
+        <v>0.02860719190122991</v>
       </c>
       <c r="AH10">
-        <v>0.02860719190122991</v>
+        <v>0</v>
       </c>
       <c r="AI10">
         <v>0</v>
@@ -1679,22 +1679,22 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.116321071660717</v>
       </c>
       <c r="E11">
-        <v>0.116321071660717</v>
+        <v>0.01544082078067285</v>
       </c>
       <c r="F11">
-        <v>0.01544082078067285</v>
+        <v>0.3067536239867224</v>
       </c>
       <c r="G11">
-        <v>0.3067536239867224</v>
+        <v>0.1058933028759082</v>
       </c>
       <c r="H11">
-        <v>0.1058933028759082</v>
+        <v>0.004480444893208098</v>
       </c>
       <c r="I11">
-        <v>0.004480444893208098</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1703,52 +1703,52 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.01384117962320265</v>
       </c>
       <c r="M11">
-        <v>0.01384117962320265</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1176273089956122</v>
       </c>
       <c r="O11">
-        <v>0.1176273089956122</v>
+        <v>0.06635277477464145</v>
       </c>
       <c r="P11">
-        <v>0.06635277477464145</v>
+        <v>0.003078864159803522</v>
       </c>
       <c r="Q11">
-        <v>0.003078864159803522</v>
+        <v>0.02268799082026287</v>
       </c>
       <c r="R11">
-        <v>0.02268799082026287</v>
+        <v>0.01878173835251191</v>
       </c>
       <c r="S11">
-        <v>0.01878173835251191</v>
+        <v>0.07506587824471515</v>
       </c>
       <c r="T11">
-        <v>0.07506587824471515</v>
+        <v>0.01126271999726156</v>
       </c>
       <c r="U11">
-        <v>0.01126271999726156</v>
+        <v>0.03673579833551682</v>
       </c>
       <c r="V11">
-        <v>0.03673579833551682</v>
+        <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>0.01522975593001955</v>
       </c>
       <c r="X11">
-        <v>0.01522975593001955</v>
+        <v>0</v>
       </c>
       <c r="Y11">
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>0.001534007764861096</v>
       </c>
       <c r="AA11">
-        <v>0.001534007764861096</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1757,16 +1757,16 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>0.03394859844831373</v>
       </c>
       <c r="AE11">
-        <v>0.03394859844831373</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>0.03496412035604919</v>
       </c>
       <c r="AG11">
-        <v>0.03496412035604919</v>
+        <v>0</v>
       </c>
       <c r="AH11">
         <v>0</v>
@@ -1912,16 +1912,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.04506554898033514</v>
       </c>
       <c r="E2">
-        <v>0.04506554898033514</v>
+        <v>0.0920594269553158</v>
       </c>
       <c r="F2">
-        <v>0.0920594269553158</v>
+        <v>0.2696001983462257</v>
       </c>
       <c r="G2">
-        <v>0.2696001983462257</v>
+        <v>0.378307398548098</v>
       </c>
       <c r="H2">
         <v>0.378307398548098</v>
@@ -1930,22 +1930,22 @@
         <v>0.378307398548098</v>
       </c>
       <c r="J2">
-        <v>0.378307398548098</v>
+        <v>0.3900947535378714</v>
       </c>
       <c r="K2">
         <v>0.3900947535378714</v>
       </c>
       <c r="L2">
-        <v>0.3900947535378714</v>
+        <v>0.4147628881449303</v>
       </c>
       <c r="M2">
-        <v>0.4147628881449303</v>
+        <v>0.4614693135060174</v>
       </c>
       <c r="N2">
-        <v>0.4614693135060174</v>
+        <v>0.4847916215215469</v>
       </c>
       <c r="O2">
-        <v>0.4847916215215469</v>
+        <v>0.6795259923303615</v>
       </c>
       <c r="P2">
         <v>0.6795259923303615</v>
@@ -1954,22 +1954,22 @@
         <v>0.6795259923303615</v>
       </c>
       <c r="R2">
-        <v>0.6795259923303615</v>
+        <v>0.716562101392435</v>
       </c>
       <c r="S2">
-        <v>0.716562101392435</v>
+        <v>0.7627798508008996</v>
       </c>
       <c r="T2">
-        <v>0.7627798508008996</v>
+        <v>0.8573792449555745</v>
       </c>
       <c r="U2">
-        <v>0.8573792449555745</v>
+        <v>0.8775165540426788</v>
       </c>
       <c r="V2">
-        <v>0.8775165540426788</v>
+        <v>0.884685145206679</v>
       </c>
       <c r="W2">
-        <v>0.884685145206679</v>
+        <v>0.8903699931750413</v>
       </c>
       <c r="X2">
         <v>0.8903699931750413</v>
@@ -1981,7 +1981,7 @@
         <v>0.8903699931750413</v>
       </c>
       <c r="AA2">
-        <v>0.8903699931750413</v>
+        <v>0.8986802326711651</v>
       </c>
       <c r="AB2">
         <v>0.8986802326711651</v>
@@ -1990,19 +1990,19 @@
         <v>0.8986802326711651</v>
       </c>
       <c r="AD2">
-        <v>0.8986802326711651</v>
+        <v>0.9341499283521528</v>
       </c>
       <c r="AE2">
         <v>0.9341499283521528</v>
       </c>
       <c r="AF2">
-        <v>0.9341499283521528</v>
+        <v>0.9848965739451854</v>
       </c>
       <c r="AG2">
-        <v>0.9848965739451854</v>
+        <v>0.996903588608765</v>
       </c>
       <c r="AH2">
-        <v>0.996903588608765</v>
+        <v>1</v>
       </c>
       <c r="AI2">
         <v>1</v>
@@ -2022,16 +2022,16 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.1025561676325245</v>
       </c>
       <c r="E3">
         <v>0.1025561676325245</v>
       </c>
       <c r="F3">
-        <v>0.1025561676325245</v>
+        <v>0.3311945565842522</v>
       </c>
       <c r="G3">
-        <v>0.3311945565842522</v>
+        <v>0.440407815492138</v>
       </c>
       <c r="H3">
         <v>0.440407815492138</v>
@@ -2040,7 +2040,7 @@
         <v>0.440407815492138</v>
       </c>
       <c r="J3">
-        <v>0.440407815492138</v>
+        <v>0.4430833113865219</v>
       </c>
       <c r="K3">
         <v>0.4430833113865219</v>
@@ -2049,13 +2049,13 @@
         <v>0.4430833113865219</v>
       </c>
       <c r="M3">
-        <v>0.4430833113865219</v>
+        <v>0.467619368506928</v>
       </c>
       <c r="N3">
         <v>0.467619368506928</v>
       </c>
       <c r="O3">
-        <v>0.467619368506928</v>
+        <v>0.8517096319824782</v>
       </c>
       <c r="P3">
         <v>0.8517096319824782</v>
@@ -2067,10 +2067,10 @@
         <v>0.8517096319824782</v>
       </c>
       <c r="S3">
-        <v>0.8517096319824782</v>
+        <v>0.8704819138972827</v>
       </c>
       <c r="T3">
-        <v>0.8704819138972827</v>
+        <v>0.9860510125519251</v>
       </c>
       <c r="U3">
         <v>0.9860510125519251</v>
@@ -2106,10 +2106,10 @@
         <v>0.9860510125519251</v>
       </c>
       <c r="AF3">
-        <v>0.9860510125519251</v>
+        <v>0.9950257624131893</v>
       </c>
       <c r="AG3">
-        <v>0.9950257624131893</v>
+        <v>1</v>
       </c>
       <c r="AH3">
         <v>1</v>
@@ -2132,22 +2132,22 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>0.276757297364939</v>
       </c>
       <c r="E4">
-        <v>0.276757297364939</v>
+        <v>0.2791162411767429</v>
       </c>
       <c r="F4">
-        <v>0.2791162411767429</v>
+        <v>0.5836008928039232</v>
       </c>
       <c r="G4">
-        <v>0.5836008928039232</v>
+        <v>0.5929284573575386</v>
       </c>
       <c r="H4">
         <v>0.5929284573575386</v>
       </c>
       <c r="I4">
-        <v>0.5929284573575386</v>
+        <v>0.5956378599821414</v>
       </c>
       <c r="J4">
         <v>0.5956378599821414</v>
@@ -2156,34 +2156,34 @@
         <v>0.5956378599821414</v>
       </c>
       <c r="L4">
-        <v>0.5956378599821414</v>
+        <v>0.6462953332519459</v>
       </c>
       <c r="M4">
         <v>0.6462953332519459</v>
       </c>
       <c r="N4">
-        <v>0.6462953332519459</v>
+        <v>0.7791621944175708</v>
       </c>
       <c r="O4">
-        <v>0.7791621944175708</v>
+        <v>0.7833065495408588</v>
       </c>
       <c r="P4">
         <v>0.7833065495408588</v>
       </c>
       <c r="Q4">
-        <v>0.7833065495408588</v>
+        <v>0.8025479474752689</v>
       </c>
       <c r="R4">
         <v>0.8025479474752689</v>
       </c>
       <c r="S4">
-        <v>0.8025479474752689</v>
+        <v>0.9080843647646731</v>
       </c>
       <c r="T4">
         <v>0.9080843647646731</v>
       </c>
       <c r="U4">
-        <v>0.9080843647646731</v>
+        <v>0.9267815767311418</v>
       </c>
       <c r="V4">
         <v>0.9267815767311418</v>
@@ -2198,7 +2198,7 @@
         <v>0.9267815767311418</v>
       </c>
       <c r="Z4">
-        <v>0.9267815767311418</v>
+        <v>0.9406845250776795</v>
       </c>
       <c r="AA4">
         <v>0.9406845250776795</v>
@@ -2210,13 +2210,13 @@
         <v>0.9406845250776795</v>
       </c>
       <c r="AD4">
-        <v>0.9406845250776795</v>
+        <v>0.9559551353129552</v>
       </c>
       <c r="AE4">
         <v>0.9559551353129552</v>
       </c>
       <c r="AF4">
-        <v>0.9559551353129552</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AG4">
         <v>0.9999999999999998</v>
@@ -2242,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>0.2018468388515487</v>
       </c>
       <c r="E5">
         <v>0.2018468388515487</v>
       </c>
       <c r="F5">
-        <v>0.2018468388515487</v>
+        <v>0.3595267527639691</v>
       </c>
       <c r="G5">
-        <v>0.3595267527639691</v>
+        <v>0.3896972647903078</v>
       </c>
       <c r="H5">
         <v>0.3896972647903078</v>
@@ -2260,46 +2260,46 @@
         <v>0.3896972647903078</v>
       </c>
       <c r="J5">
-        <v>0.3896972647903078</v>
+        <v>0.4171487778898654</v>
       </c>
       <c r="K5">
         <v>0.4171487778898654</v>
       </c>
       <c r="L5">
-        <v>0.4171487778898654</v>
+        <v>0.4897232395136367</v>
       </c>
       <c r="M5">
-        <v>0.4897232395136367</v>
+        <v>0.5019204949010483</v>
       </c>
       <c r="N5">
-        <v>0.5019204949010483</v>
+        <v>0.6061984891580599</v>
       </c>
       <c r="O5">
-        <v>0.6061984891580599</v>
+        <v>0.6945354669385013</v>
       </c>
       <c r="P5">
         <v>0.6945354669385013</v>
       </c>
       <c r="Q5">
-        <v>0.6945354669385013</v>
+        <v>0.7057214483584654</v>
       </c>
       <c r="R5">
-        <v>0.7057214483584654</v>
+        <v>0.708283544172684</v>
       </c>
       <c r="S5">
-        <v>0.708283544172684</v>
+        <v>0.8044291935706941</v>
       </c>
       <c r="T5">
-        <v>0.8044291935706941</v>
+        <v>0.8395368091948591</v>
       </c>
       <c r="U5">
-        <v>0.8395368091948591</v>
+        <v>0.8707119866826979</v>
       </c>
       <c r="V5">
         <v>0.8707119866826979</v>
       </c>
       <c r="W5">
-        <v>0.8707119866826979</v>
+        <v>0.882238019430866</v>
       </c>
       <c r="X5">
         <v>0.882238019430866</v>
@@ -2308,31 +2308,31 @@
         <v>0.882238019430866</v>
       </c>
       <c r="Z5">
-        <v>0.882238019430866</v>
+        <v>0.8961976737286724</v>
       </c>
       <c r="AA5">
-        <v>0.8961976737286724</v>
+        <v>0.9089399571835698</v>
       </c>
       <c r="AB5">
-        <v>0.9089399571835698</v>
+        <v>0.910397982218758</v>
       </c>
       <c r="AC5">
         <v>0.910397982218758</v>
       </c>
       <c r="AD5">
-        <v>0.910397982218758</v>
+        <v>0.9268813598569136</v>
       </c>
       <c r="AE5">
         <v>0.9268813598569136</v>
       </c>
       <c r="AF5">
-        <v>0.9268813598569136</v>
+        <v>0.9912083257298701</v>
       </c>
       <c r="AG5">
-        <v>0.9912083257298701</v>
+        <v>0.9966326539056151</v>
       </c>
       <c r="AH5">
-        <v>0.9966326539056151</v>
+        <v>1</v>
       </c>
       <c r="AI5">
         <v>1</v>
@@ -2355,100 +2355,100 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.009002186066033873</v>
+        <v>0.1226194417478845</v>
       </c>
       <c r="F6">
-        <v>0.1305396588095872</v>
+        <v>0.2178783531690366</v>
       </c>
       <c r="G6">
-        <v>0.2249580249789027</v>
+        <v>0.4590995864709706</v>
       </c>
       <c r="H6">
-        <v>0.4640507712000044</v>
+        <v>0.4590995864709706</v>
       </c>
       <c r="I6">
-        <v>0.4640507712000044</v>
+        <v>0.4654942489662067</v>
       </c>
       <c r="J6">
-        <v>0.4703890084945189</v>
+        <v>0.4654942489662067</v>
       </c>
       <c r="K6">
-        <v>0.4703890084945189</v>
+        <v>0.4654942489662067</v>
       </c>
       <c r="L6">
-        <v>0.4703890084945189</v>
+        <v>0.472693551483185</v>
       </c>
       <c r="M6">
-        <v>0.4775247858309456</v>
+        <v>0.5112760116419529</v>
       </c>
       <c r="N6">
-        <v>0.515766802211732</v>
+        <v>0.5112760116419529</v>
       </c>
       <c r="O6">
-        <v>0.515766802211732</v>
+        <v>0.702199999860707</v>
       </c>
       <c r="P6">
-        <v>0.7050061160061747</v>
+        <v>0.702199999860707</v>
       </c>
       <c r="Q6">
-        <v>0.7050061160061747</v>
+        <v>0.702199999860707</v>
       </c>
       <c r="R6">
-        <v>0.7050061160061747</v>
+        <v>0.7393915608110907</v>
       </c>
       <c r="S6">
-        <v>0.7418695061901822</v>
+        <v>0.7414946734388494</v>
       </c>
       <c r="T6">
-        <v>0.7439540613800387</v>
+        <v>0.861466132432874</v>
       </c>
       <c r="U6">
-        <v>0.8628669166307611</v>
+        <v>0.861466132432874</v>
       </c>
       <c r="V6">
-        <v>0.8628669166307611</v>
+        <v>0.8775745746907857</v>
       </c>
       <c r="W6">
-        <v>0.8788332212718097</v>
+        <v>0.8775745746907857</v>
       </c>
       <c r="X6">
-        <v>0.8788332212718097</v>
+        <v>0.8775745746907857</v>
       </c>
       <c r="Y6">
-        <v>0.8788332212718097</v>
+        <v>0.8775745746907857</v>
       </c>
       <c r="Z6">
-        <v>0.8788332212718097</v>
+        <v>0.8775745746907857</v>
       </c>
       <c r="AA6">
-        <v>0.8788332212718097</v>
+        <v>0.897931080875229</v>
       </c>
       <c r="AB6">
-        <v>0.8990101057876654</v>
+        <v>0.897931080875229</v>
       </c>
       <c r="AC6">
-        <v>0.8990101057876654</v>
+        <v>0.9072238107627237</v>
       </c>
       <c r="AD6">
-        <v>0.9082208385174455</v>
+        <v>0.9242721341804022</v>
       </c>
       <c r="AE6">
-        <v>0.9251187309981469</v>
+        <v>0.9354849139592657</v>
       </c>
       <c r="AF6">
-        <v>0.936232571489731</v>
+        <v>0.9588280232096248</v>
       </c>
       <c r="AG6">
-        <v>0.9593697058937396</v>
+        <v>0.9994154287646571</v>
       </c>
       <c r="AH6">
-        <v>0.9995989764405645</v>
+        <v>0.9994154287646571</v>
       </c>
       <c r="AI6">
-        <v>0.9995989764405645</v>
+        <v>0.9998200223757935</v>
       </c>
       <c r="AJ6">
-        <v>0.9999999999999998</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:36">
@@ -2465,100 +2465,100 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01105597293612124</v>
+        <v>0.1813285737966334</v>
       </c>
       <c r="F7">
-        <v>0.1907079058405402</v>
+        <v>0.2694995692078182</v>
       </c>
       <c r="G7">
-        <v>0.2780636348360777</v>
+        <v>0.4763469522997408</v>
       </c>
       <c r="H7">
-        <v>0.4829984193028745</v>
+        <v>0.4763469522997408</v>
       </c>
       <c r="I7">
-        <v>0.4829984193028745</v>
+        <v>0.4783110532594093</v>
       </c>
       <c r="J7">
-        <v>0.4849443593521224</v>
+        <v>0.4783110532594093</v>
       </c>
       <c r="K7">
-        <v>0.4849443593521224</v>
+        <v>0.4783110532594093</v>
       </c>
       <c r="L7">
-        <v>0.4849443593521224</v>
+        <v>0.4830252245937595</v>
       </c>
       <c r="M7">
-        <v>0.4896149414591016</v>
+        <v>0.5010697761799603</v>
       </c>
       <c r="N7">
-        <v>0.5074926454688965</v>
+        <v>0.5053763554470659</v>
       </c>
       <c r="O7">
-        <v>0.5117594042777389</v>
+        <v>0.7186718927697161</v>
       </c>
       <c r="P7">
-        <v>0.7230827206066748</v>
+        <v>0.7186718927697161</v>
       </c>
       <c r="Q7">
-        <v>0.7230827206066748</v>
+        <v>0.7186718927697161</v>
       </c>
       <c r="R7">
-        <v>0.7230827206066748</v>
+        <v>0.7656329583739456</v>
       </c>
       <c r="S7">
-        <v>0.769609564282802</v>
+        <v>0.78050074088933</v>
       </c>
       <c r="T7">
-        <v>0.7843398729758322</v>
+        <v>0.8819502050593294</v>
       </c>
       <c r="U7">
-        <v>0.8848512923768289</v>
+        <v>0.8844578642090271</v>
       </c>
       <c r="V7">
-        <v>0.8873357646465655</v>
+        <v>0.893072020647303</v>
       </c>
       <c r="W7">
-        <v>0.8958702709412708</v>
+        <v>0.9067954843960825</v>
       </c>
       <c r="X7">
-        <v>0.9094668417243017</v>
+        <v>0.9131683892684519</v>
       </c>
       <c r="Y7">
-        <v>0.9157808200155622</v>
+        <v>0.9131683892684519</v>
       </c>
       <c r="Z7">
-        <v>0.9157808200155622</v>
+        <v>0.9131683892684519</v>
       </c>
       <c r="AA7">
-        <v>0.9157808200155622</v>
+        <v>0.9221280900088006</v>
       </c>
       <c r="AB7">
-        <v>0.9246576755631829</v>
+        <v>0.9223931929254257</v>
       </c>
       <c r="AC7">
-        <v>0.9249203272258144</v>
+        <v>0.9225368398295573</v>
       </c>
       <c r="AD7">
-        <v>0.9250626459097517</v>
+        <v>0.936610441627053</v>
       </c>
       <c r="AE7">
-        <v>0.9390061172166119</v>
+        <v>0.9372879068387479</v>
       </c>
       <c r="AF7">
-        <v>0.939677318297656</v>
+        <v>0.9570177166534003</v>
       </c>
       <c r="AG7">
-        <v>0.9592246979236281</v>
+        <v>0.9981735631400013</v>
       </c>
       <c r="AH7">
-        <v>0.9999999999999999</v>
+        <v>0.9981735631400013</v>
       </c>
       <c r="AI7">
-        <v>0.9999999999999999</v>
+        <v>0.9981735631400013</v>
       </c>
       <c r="AJ7">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:36">
@@ -2572,97 +2572,97 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0001974803668268953</v>
+        <v>0.2091330816366072</v>
       </c>
       <c r="E8">
-        <v>0.2094017241010661</v>
+        <v>0.2321403592840123</v>
       </c>
       <c r="F8">
-        <v>0.232416830477075</v>
+        <v>0.4576277050891766</v>
       </c>
       <c r="G8">
-        <v>0.4579809032753646</v>
+        <v>0.4720311588463421</v>
       </c>
       <c r="H8">
-        <v>0.472389258122183</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="I8">
-        <v>0.4727800640866293</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="J8">
-        <v>0.4727800640866293</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="K8">
-        <v>0.4727800640866293</v>
+        <v>0.4724218318757594</v>
       </c>
       <c r="L8">
-        <v>0.4727800640866293</v>
+        <v>0.4967505282063265</v>
       </c>
       <c r="M8">
-        <v>0.4971170387873614</v>
+        <v>0.4967505282063265</v>
       </c>
       <c r="N8">
-        <v>0.4971170387873614</v>
+        <v>0.6787858055248513</v>
       </c>
       <c r="O8">
-        <v>0.6792142575838946</v>
+        <v>0.6944715942549902</v>
       </c>
       <c r="P8">
-        <v>0.6949053837461618</v>
+        <v>0.6975911640317574</v>
       </c>
       <c r="Q8">
-        <v>0.6980260150246641</v>
+        <v>0.738883272413593</v>
       </c>
       <c r="R8">
-        <v>0.7393321739480262</v>
+        <v>0.738883272413593</v>
       </c>
       <c r="S8">
-        <v>0.7393321739480262</v>
+        <v>0.8521302458540636</v>
       </c>
       <c r="T8">
-        <v>0.8526176821440575</v>
+        <v>0.8521302458540636</v>
       </c>
       <c r="U8">
-        <v>0.8526176821440575</v>
+        <v>0.8814801485803893</v>
       </c>
       <c r="V8">
-        <v>0.8819775718156668</v>
+        <v>0.8899723934526579</v>
       </c>
       <c r="W8">
-        <v>0.8904727063596889</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="X8">
-        <v>0.9095340684667264</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="Y8">
-        <v>0.9095340684667264</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="Z8">
-        <v>0.9095340684667264</v>
+        <v>0.9247711660792947</v>
       </c>
       <c r="AA8">
-        <v>0.9252833200285738</v>
+        <v>0.9340114855112132</v>
       </c>
       <c r="AB8">
-        <v>0.9345267836809497</v>
+        <v>0.9369285838684644</v>
       </c>
       <c r="AC8">
-        <v>0.9374448746446145</v>
+        <v>0.941437588233032</v>
       </c>
       <c r="AD8">
-        <v>0.9419554132963751</v>
+        <v>0.9511515331871453</v>
       </c>
       <c r="AE8">
-        <v>0.9516726636323716</v>
+        <v>0.9573867421936559</v>
       </c>
       <c r="AF8">
-        <v>0.9579099943048979</v>
+        <v>0.9994624307169782</v>
       </c>
       <c r="AG8">
-        <v>0.9999999999999999</v>
+        <v>0.9994624307169782</v>
       </c>
       <c r="AH8">
-        <v>0.9999999999999999</v>
+        <v>0.9994624307169782</v>
       </c>
       <c r="AI8">
         <v>0.9999999999999999</v>
@@ -2682,16 +2682,16 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1441778060323411</v>
       </c>
       <c r="E9">
-        <v>0.1441778060323411</v>
+        <v>0.1489700738847035</v>
       </c>
       <c r="F9">
-        <v>0.1489700738847035</v>
+        <v>0.3644922229464428</v>
       </c>
       <c r="G9">
-        <v>0.3644922229464428</v>
+        <v>0.4453639455643936</v>
       </c>
       <c r="H9">
         <v>0.4453639455643936</v>
@@ -2700,46 +2700,46 @@
         <v>0.4453639455643936</v>
       </c>
       <c r="J9">
-        <v>0.4453639455643936</v>
+        <v>0.447450956925754</v>
       </c>
       <c r="K9">
         <v>0.447450956925754</v>
       </c>
       <c r="L9">
-        <v>0.447450956925754</v>
+        <v>0.4657411872101916</v>
       </c>
       <c r="M9">
         <v>0.4657411872101916</v>
       </c>
       <c r="N9">
-        <v>0.4657411872101916</v>
+        <v>0.5441867516056196</v>
       </c>
       <c r="O9">
-        <v>0.5441867516056196</v>
+        <v>0.7697140673646109</v>
       </c>
       <c r="P9">
         <v>0.7697140673646109</v>
       </c>
       <c r="Q9">
-        <v>0.7697140673646109</v>
+        <v>0.7727436146311016</v>
       </c>
       <c r="R9">
-        <v>0.7727436146311016</v>
+        <v>0.8021387184135668</v>
       </c>
       <c r="S9">
-        <v>0.8021387184135668</v>
+        <v>0.8804559160847129</v>
       </c>
       <c r="T9">
-        <v>0.8804559160847129</v>
+        <v>0.9105235020349184</v>
       </c>
       <c r="U9">
-        <v>0.9105235020349184</v>
+        <v>0.9360993379789851</v>
       </c>
       <c r="V9">
         <v>0.9360993379789851</v>
       </c>
       <c r="W9">
-        <v>0.9360993379789851</v>
+        <v>0.9480481779542065</v>
       </c>
       <c r="X9">
         <v>0.9480481779542065</v>
@@ -2751,7 +2751,7 @@
         <v>0.9480481779542065</v>
       </c>
       <c r="AA9">
-        <v>0.9480481779542065</v>
+        <v>0.9760422608162491</v>
       </c>
       <c r="AB9">
         <v>0.9760422608162491</v>
@@ -2760,16 +2760,16 @@
         <v>0.9760422608162491</v>
       </c>
       <c r="AD9">
-        <v>0.9760422608162491</v>
+        <v>0.9768982955354161</v>
       </c>
       <c r="AE9">
         <v>0.9768982955354161</v>
       </c>
       <c r="AF9">
-        <v>0.9768982955354161</v>
+        <v>0.9882703905911961</v>
       </c>
       <c r="AG9">
-        <v>0.9882703905911961</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="AH9">
         <v>0.9999999999999998</v>
@@ -2792,19 +2792,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>0.04255957830718306</v>
       </c>
       <c r="E10">
-        <v>0.04255957830718306</v>
+        <v>0.1515203445487683</v>
       </c>
       <c r="F10">
-        <v>0.1515203445487683</v>
+        <v>0.2408203248060558</v>
       </c>
       <c r="G10">
-        <v>0.2408203248060558</v>
+        <v>0.4331997087786572</v>
       </c>
       <c r="H10">
-        <v>0.4331997087786572</v>
+        <v>0.4376677806483998</v>
       </c>
       <c r="I10">
         <v>0.4376677806483998</v>
@@ -2816,16 +2816,16 @@
         <v>0.4376677806483998</v>
       </c>
       <c r="L10">
-        <v>0.4376677806483998</v>
+        <v>0.4411743210221888</v>
       </c>
       <c r="M10">
-        <v>0.4411743210221888</v>
+        <v>0.4508273042568107</v>
       </c>
       <c r="N10">
-        <v>0.4508273042568107</v>
+        <v>0.4808633921500772</v>
       </c>
       <c r="O10">
-        <v>0.4808633921500772</v>
+        <v>0.7030954459878503</v>
       </c>
       <c r="P10">
         <v>0.7030954459878503</v>
@@ -2834,52 +2834,52 @@
         <v>0.7030954459878503</v>
       </c>
       <c r="R10">
-        <v>0.7030954459878503</v>
+        <v>0.7645903553900727</v>
       </c>
       <c r="S10">
-        <v>0.7645903553900727</v>
+        <v>0.7706727479010399</v>
       </c>
       <c r="T10">
-        <v>0.7706727479010399</v>
+        <v>0.8585999068851454</v>
       </c>
       <c r="U10">
-        <v>0.8585999068851454</v>
+        <v>0.8633026039540911</v>
       </c>
       <c r="V10">
-        <v>0.8633026039540911</v>
+        <v>0.878366043259084</v>
       </c>
       <c r="W10">
-        <v>0.878366043259084</v>
+        <v>0.8933625477929957</v>
       </c>
       <c r="X10">
-        <v>0.8933625477929957</v>
+        <v>0.9011461908252356</v>
       </c>
       <c r="Y10">
-        <v>0.9011461908252356</v>
+        <v>0.9017043043042761</v>
       </c>
       <c r="Z10">
         <v>0.9017043043042761</v>
       </c>
       <c r="AA10">
-        <v>0.9017043043042761</v>
+        <v>0.9310036583727452</v>
       </c>
       <c r="AB10">
-        <v>0.9310036583727452</v>
+        <v>0.9345241126281351</v>
       </c>
       <c r="AC10">
         <v>0.9345241126281351</v>
       </c>
       <c r="AD10">
-        <v>0.9345241126281351</v>
+        <v>0.9524667471542038</v>
       </c>
       <c r="AE10">
-        <v>0.9524667471542038</v>
+        <v>0.9609209327193972</v>
       </c>
       <c r="AF10">
-        <v>0.9609209327193972</v>
+        <v>0.97139280809877</v>
       </c>
       <c r="AG10">
-        <v>0.97139280809877</v>
+        <v>1</v>
       </c>
       <c r="AH10">
         <v>1</v>
@@ -2902,19 +2902,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.116321071660717</v>
       </c>
       <c r="E11">
-        <v>0.116321071660717</v>
+        <v>0.1317618924413898</v>
       </c>
       <c r="F11">
-        <v>0.1317618924413898</v>
+        <v>0.4385155164281122</v>
       </c>
       <c r="G11">
-        <v>0.4385155164281122</v>
+        <v>0.5444088193040204</v>
       </c>
       <c r="H11">
-        <v>0.5444088193040204</v>
+        <v>0.5488892641972285</v>
       </c>
       <c r="I11">
         <v>0.5488892641972285</v>
@@ -2926,40 +2926,40 @@
         <v>0.5488892641972285</v>
       </c>
       <c r="L11">
-        <v>0.5488892641972285</v>
+        <v>0.5627304438204311</v>
       </c>
       <c r="M11">
         <v>0.5627304438204311</v>
       </c>
       <c r="N11">
-        <v>0.5627304438204311</v>
+        <v>0.6803577528160434</v>
       </c>
       <c r="O11">
-        <v>0.6803577528160434</v>
+        <v>0.7467105275906848</v>
       </c>
       <c r="P11">
-        <v>0.7467105275906848</v>
+        <v>0.7497893917504883</v>
       </c>
       <c r="Q11">
-        <v>0.7497893917504883</v>
+        <v>0.7724773825707512</v>
       </c>
       <c r="R11">
-        <v>0.7724773825707512</v>
+        <v>0.7912591209232631</v>
       </c>
       <c r="S11">
-        <v>0.7912591209232631</v>
+        <v>0.8663249991679782</v>
       </c>
       <c r="T11">
-        <v>0.8663249991679782</v>
+        <v>0.8775877191652398</v>
       </c>
       <c r="U11">
-        <v>0.8775877191652398</v>
+        <v>0.9143235175007567</v>
       </c>
       <c r="V11">
         <v>0.9143235175007567</v>
       </c>
       <c r="W11">
-        <v>0.9143235175007567</v>
+        <v>0.9295532734307762</v>
       </c>
       <c r="X11">
         <v>0.9295532734307762</v>
@@ -2968,7 +2968,7 @@
         <v>0.9295532734307762</v>
       </c>
       <c r="Z11">
-        <v>0.9295532734307762</v>
+        <v>0.9310872811956373</v>
       </c>
       <c r="AA11">
         <v>0.9310872811956373</v>
@@ -2980,13 +2980,13 @@
         <v>0.9310872811956373</v>
       </c>
       <c r="AD11">
-        <v>0.9310872811956373</v>
+        <v>0.9650358796439511</v>
       </c>
       <c r="AE11">
         <v>0.9650358796439511</v>
       </c>
       <c r="AF11">
-        <v>0.9650358796439511</v>
+        <v>1</v>
       </c>
       <c r="AG11">
         <v>1</v>
@@ -3063,10 +3063,10 @@
         <v>0.5</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3104,10 +3104,10 @@
         <v>0.5</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>0.5</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         <v>0.5</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3227,16 +3227,16 @@
         <v>0.5</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.515766802211732</v>
+        <v>0.5112760116419529</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -3268,16 +3268,16 @@
         <v>0.5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5074926454688965</v>
+        <v>0.5010697761799603</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -3309,16 +3309,16 @@
         <v>0.5</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6792142575838946</v>
+        <v>0.6787858055248513</v>
       </c>
       <c r="G8">
         <v>12</v>
@@ -3350,10 +3350,10 @@
         <v>0.5</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3391,10 +3391,10 @@
         <v>0.5</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3432,10 +3432,10 @@
         <v>0.5</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3527,10 +3527,10 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0.7</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -3609,10 +3609,10 @@
         <v>0.7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -3650,10 +3650,10 @@
         <v>0.7</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -3691,16 +3691,16 @@
         <v>0.7</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.7050061160061747</v>
+        <v>0.702199999860707</v>
       </c>
       <c r="G6">
         <v>12</v>
@@ -3732,16 +3732,16 @@
         <v>0.7</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.7230827206066748</v>
+        <v>0.7186718927697161</v>
       </c>
       <c r="G7">
         <v>12</v>
@@ -3773,16 +3773,16 @@
         <v>0.7</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7393321739480262</v>
+        <v>0.738883272413593</v>
       </c>
       <c r="G8">
         <v>15</v>
@@ -3814,10 +3814,10 @@
         <v>0.7</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -3855,10 +3855,10 @@
         <v>0.7</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -3896,10 +3896,10 @@
         <v>0.7</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -3991,10 +3991,10 @@
         <v>0.8</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4032,10 +4032,10 @@
         <v>0.8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0.8</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4114,10 +4114,10 @@
         <v>0.8</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4155,16 +4155,16 @@
         <v>0.8</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.8628669166307611</v>
+        <v>0.861466132432874</v>
       </c>
       <c r="G6">
         <v>17</v>
@@ -4196,16 +4196,16 @@
         <v>0.8</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.8848512923768289</v>
+        <v>0.8819502050593294</v>
       </c>
       <c r="G7">
         <v>17</v>
@@ -4237,16 +4237,16 @@
         <v>0.8</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.8526176821440575</v>
+        <v>0.8521302458540636</v>
       </c>
       <c r="G8">
         <v>17</v>
@@ -4278,10 +4278,10 @@
         <v>0.8</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4319,10 +4319,10 @@
         <v>0.8</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4360,10 +4360,10 @@
         <v>0.8</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -4455,10 +4455,10 @@
         <v>0.9</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -4496,10 +4496,10 @@
         <v>0.9</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -4537,10 +4537,10 @@
         <v>0.9</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4578,10 +4578,10 @@
         <v>0.9</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -4619,16 +4619,16 @@
         <v>0.9</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9082208385174455</v>
+        <v>0.9072238107627237</v>
       </c>
       <c r="G6">
         <v>26</v>
@@ -4660,16 +4660,16 @@
         <v>0.9</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9094668417243017</v>
+        <v>0.9067954843960825</v>
       </c>
       <c r="G7">
         <v>20</v>
@@ -4701,16 +4701,16 @@
         <v>0.9</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9095340684667264</v>
+        <v>0.9090272717212843</v>
       </c>
       <c r="G8">
         <v>21</v>
@@ -4742,10 +4742,10 @@
         <v>0.9</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4783,10 +4783,10 @@
         <v>0.9</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -4824,10 +4824,10 @@
         <v>0.9</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
